--- a/src/data/raw/2024-01-03_review_papers.xlsx
+++ b/src/data/raw/2024-01-03_review_papers.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lex/Workspace/phd-research-ucc/repositories/mrs-systematic-analysis/src/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A992356-5B00-464F-BBC2-963C2E70FD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F0C77-D63E-694A-B5D4-B48A1CF43F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{42FB9FC8-AC2E-C945-8759-9355EAD5812E}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{42FB9FC8-AC2E-C945-8759-9355EAD5812E}"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
-    <sheet name="search_dbs" sheetId="5" r:id="rId2"/>
-    <sheet name="affiliations" sheetId="4" r:id="rId3"/>
-    <sheet name="keywords" sheetId="7" r:id="rId4"/>
-    <sheet name="legend" sheetId="2" r:id="rId5"/>
-    <sheet name="factors" sheetId="3" r:id="rId6"/>
+    <sheet name="source_refs" sheetId="8" r:id="rId2"/>
+    <sheet name="search_dbs" sheetId="5" r:id="rId3"/>
+    <sheet name="affiliations" sheetId="4" r:id="rId4"/>
+    <sheet name="keywords" sheetId="7" r:id="rId5"/>
+    <sheet name="legend" sheetId="2" r:id="rId6"/>
+    <sheet name="factors" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="185">
   <si>
     <t>count</t>
   </si>
@@ -109,18 +110,6 @@
     <t>rejected</t>
   </si>
   <si>
-    <t>method_1</t>
-  </si>
-  <si>
-    <t>method_2</t>
-  </si>
-  <si>
-    <t>method_3</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -271,18 +260,9 @@
     <t>https://doi.org/10.1016/j.hlpt.2023.100824</t>
   </si>
   <si>
-    <t>none declated</t>
-  </si>
-  <si>
     <t>db_name</t>
   </si>
   <si>
-    <t>has_api</t>
-  </si>
-  <si>
-    <t>access</t>
-  </si>
-  <si>
     <t>Taxonomy analysis</t>
   </si>
   <si>
@@ -292,9 +272,6 @@
     <t>Systematic review</t>
   </si>
   <si>
-    <t>Narative review</t>
-  </si>
-  <si>
     <t>Open-source</t>
   </si>
   <si>
@@ -307,9 +284,6 @@
     <t>Inaccessible</t>
   </si>
   <si>
-    <t>research_area</t>
-  </si>
-  <si>
     <t>Computer science</t>
   </si>
   <si>
@@ -332,13 +306,304 @@
   </si>
   <si>
     <t>department</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>keyword_type</t>
+  </si>
+  <si>
+    <t>db_access</t>
+  </si>
+  <si>
+    <t>db_area</t>
+  </si>
+  <si>
+    <t>db_api</t>
+  </si>
+  <si>
+    <t>db_url</t>
+  </si>
+  <si>
+    <t>x079</t>
+  </si>
+  <si>
+    <t>Current Trends in Operating Room Scheduling 2015 to 2020: a Literature Review</t>
+  </si>
+  <si>
+    <t>Metanarrative review</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s43069-022-00134-y</t>
+  </si>
+  <si>
+    <t>RAMESES publication standards</t>
+  </si>
+  <si>
+    <t>ref_url</t>
+  </si>
+  <si>
+    <t>local_ref</t>
+  </si>
+  <si>
+    <t>Reviews cascade 2000-2020;</t>
+  </si>
+  <si>
+    <t>ref_comment</t>
+  </si>
+  <si>
+    <t>Leeftink and Hans dataset</t>
+  </si>
+  <si>
+    <t>Testing&amp;validation</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.cor.2014.08.014</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1287/inte.2017.0885</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/1741-7015-11-20</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10951-017-0539-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10878-018-0322-6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ejor.2009.04.011</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1287/opre.2017.1634</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/09537287.2017.1310328</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10878-015-9861-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10878-019-00463-5</t>
+  </si>
+  <si>
+    <t>source_refs</t>
+  </si>
+  <si>
+    <t>search_dbs</t>
+  </si>
+  <si>
+    <t>References found in the bibliography of other studies</t>
+  </si>
+  <si>
+    <t>Databases of literature</t>
+  </si>
+  <si>
+    <t>x084</t>
+  </si>
+  <si>
+    <t>Machine learning models to predict surgical case duration compared to current industry standards: scoping review</t>
+  </si>
+  <si>
+    <t>Compare the novel machine learning approaches for predicting surgical case duration to present industry standards.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s41060-017-0055-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48550/arXiv.1702.05386</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jamcollsurg.2019.05.029</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.bja.2021.12.039</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2020.06.10.20127910</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.cmpb.2021.106220</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10916-018-1151-y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/jamia/ocaa140</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1001/jamasurg.2020.6361</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>ref_state</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10916-019-1160-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/01945998221076480</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ijmedinf.2021.104670</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00167-023-07314-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2196/39650</t>
+  </si>
+  <si>
+    <t>PubMed</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/</t>
+  </si>
+  <si>
+    <t>EMBASE</t>
+  </si>
+  <si>
+    <t>MEDLINE</t>
+  </si>
+  <si>
+    <t>https://www.embase.com/</t>
+  </si>
+  <si>
+    <t>https://www.nlm.nih.gov/</t>
+  </si>
+  <si>
+    <t>x104</t>
+  </si>
+  <si>
+    <t>Do not recommend</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/bjsopen/zrad113</t>
+  </si>
+  <si>
+    <t>Surgery case scheduling in a multistage operating room department: A literature review</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/326265568_Surgery_case_scheduling_in_a_multistage_operating_room_department_A_literature_review</t>
+  </si>
+  <si>
+    <t>Has advanced searching techniques</t>
+  </si>
+  <si>
+    <t>The aim is to quantify and taxonomise the current state of the OR/MS approaches implemented in orthopadic department.</t>
+  </si>
+  <si>
+    <t>x122</t>
+  </si>
+  <si>
+    <t>Fractured systems: a literature review of OR/MS methods applied to orthopaedic care settings and treatments</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/20476965.2023.2264348</t>
+  </si>
+  <si>
+    <t>None declared</t>
+  </si>
+  <si>
+    <t>Funded</t>
+  </si>
+  <si>
+    <t>Has CoI</t>
+  </si>
+  <si>
+    <t>Not mentioned</t>
+  </si>
+  <si>
+    <t>Not funded</t>
+  </si>
+  <si>
+    <t>AI for patient scheduling in the real-world health care setting: A metanarrative review</t>
+  </si>
+  <si>
+    <t>x236</t>
+  </si>
+  <si>
+    <t>The work aims to overview the papers in the field of Master Surgery Scheduling Problem, identify trends and address the existing research gaps.</t>
+  </si>
+  <si>
+    <t>Scopus, WoS, Dimensions.ai, SpringerLink, ACM Digital Library, IEEE Xplore, and Google Scholar;</t>
+  </si>
+  <si>
+    <t>Scopus</t>
+  </si>
+  <si>
+    <t>SpringerLink</t>
+  </si>
+  <si>
+    <t>ACM Digital Library</t>
+  </si>
+  <si>
+    <t>SR0007MY24</t>
+  </si>
+  <si>
+    <t>IEEE Xplore</t>
+  </si>
+  <si>
+    <t>Google Scholar</t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/</t>
+  </si>
+  <si>
+    <t>Web of Science (WoS)</t>
+  </si>
+  <si>
+    <t>https://mjl.clarivate.com/home</t>
+  </si>
+  <si>
+    <t>https://www.dimensions.ai/</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ACCESS.2022.3202546</t>
+  </si>
+  <si>
+    <t>Has solution evaluation methods</t>
+  </si>
+  <si>
+    <t>PRISMA, Arksey, and O’Malley</t>
+  </si>
+  <si>
+    <t>Scoping review</t>
+  </si>
+  <si>
+    <t>National database</t>
+  </si>
+  <si>
+    <t>Superior study by sample size and explonation</t>
+  </si>
+  <si>
+    <t>TRIPOD-AI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -354,13 +619,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -372,14 +655,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0">
       <alignment horizontal="fill"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -390,13 +676,43 @@
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="2" xr:uid="{AD703E83-2422-144D-99A8-2ADC57964367}"/>
+    <cellStyle name="Style 2" xfId="3" xr:uid="{B9FF1B68-E23A-3C40-85DE-B173152847B9}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -438,27 +754,32 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -483,7 +804,50 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="fill" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -505,34 +869,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02E67EF5-CF56-8A46-AAD1-7367959AC624}" name="Table1" displayName="Table1" ref="B2:X24" totalsRowShown="0">
-  <autoFilter ref="B2:X24" xr:uid="{02E67EF5-CF56-8A46-AAD1-7367959AC624}"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02E67EF5-CF56-8A46-AAD1-7367959AC624}" name="Table1" displayName="Table1" ref="B2:U24" totalsRowShown="0">
+  <autoFilter ref="B2:U24" xr:uid="{02E67EF5-CF56-8A46-AAD1-7367959AC624}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{ED677BE4-361B-8D44-8CD6-F0AEEA011920}" name="count"/>
     <tableColumn id="2" xr3:uid="{FFD7AE9A-C033-3147-9E29-70AB2E220DDA}" name="pk"/>
-    <tableColumn id="3" xr3:uid="{CE03817C-CE62-1D49-A361-48F2AA820C13}" name="rejected"/>
     <tableColumn id="4" xr3:uid="{C376E124-1C6B-B449-B8FE-EE59217A91C1}" name="grade"/>
     <tableColumn id="5" xr3:uid="{940E5309-CD32-7F45-B31D-0894EAC2C72F}" name="state"/>
     <tableColumn id="6" xr3:uid="{EE2A8F9A-1083-4842-8797-9642F07F644B}" name="relevance"/>
     <tableColumn id="7" xr3:uid="{B5956E56-EA0C-C544-81E9-95D5F85516CE}" name="year"/>
     <tableColumn id="8" xr3:uid="{1D433107-5A8B-4B40-8584-1024473C053A}" name="type"/>
     <tableColumn id="9" xr3:uid="{28A710C7-54CD-BC4D-A29E-7C74FFEB5F42}" name="domain"/>
-    <tableColumn id="10" xr3:uid="{743D7D21-EF89-3A44-BB4E-7B8513684FD8}" name="grasp" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{E75B2E15-E73F-2743-8578-2D00366D3074}" name="group" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{DABBD7D1-C850-8F43-BA5A-928F99EA8729}" name="old_pk" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{E3DF3DD3-8A11-6E41-B2D8-7D4D4CC58F2B}" name="title" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{DBF169C0-2F63-7146-A2D1-70994280E63D}" name="method_1"/>
-    <tableColumn id="15" xr3:uid="{B69EFFAF-53C9-F34E-B10A-7DB30404D4FD}" name="method_2"/>
-    <tableColumn id="16" xr3:uid="{C9394950-8D99-F34D-89BE-1EE2C1FA08CB}" name="method_3"/>
+    <tableColumn id="10" xr3:uid="{743D7D21-EF89-3A44-BB4E-7B8513684FD8}" name="grasp" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{E75B2E15-E73F-2743-8578-2D00366D3074}" name="group" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{DABBD7D1-C850-8F43-BA5A-928F99EA8729}" name="old_pk" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{E3DF3DD3-8A11-6E41-B2D8-7D4D4CC58F2B}" name="title" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{DBF169C0-2F63-7146-A2D1-70994280E63D}" name="method"/>
     <tableColumn id="17" xr3:uid="{5A2B4EE5-BF86-7042-97F7-E54C28D22FA9}" name="covid19"/>
-    <tableColumn id="18" xr3:uid="{50337C7A-AEB8-6A41-9E80-81EE1EE770BC}" name="objectives"/>
+    <tableColumn id="18" xr3:uid="{50337C7A-AEB8-6A41-9E80-81EE1EE770BC}" name="objectives" dataDxfId="12"/>
     <tableColumn id="19" xr3:uid="{E63FEC1A-8B57-1B47-AAEC-C5489A7E23BF}" name="coi"/>
-    <tableColumn id="20" xr3:uid="{FAB4274B-32D5-714B-AEC0-065807D96185}" name="funding"/>
-    <tableColumn id="21" xr3:uid="{329430AD-233F-7844-8FD3-986B1229B338}" name="comment"/>
-    <tableColumn id="22" xr3:uid="{7F68878B-5789-5D4B-88C5-2071869281AC}" name="url" dataDxfId="7"/>
-    <tableColumn id="23" xr3:uid="{46B5E7B4-3D1C-CD4B-8B57-EAB7415DFC0D}" name="review_url" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{FAB4274B-32D5-714B-AEC0-065807D96185}" name="funding" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{329430AD-233F-7844-8FD3-986B1229B338}" name="comment" dataDxfId="13"/>
+    <tableColumn id="22" xr3:uid="{7F68878B-5789-5D4B-88C5-2071869281AC}" name="url" dataDxfId="14"/>
+    <tableColumn id="23" xr3:uid="{46B5E7B4-3D1C-CD4B-8B57-EAB7415DFC0D}" name="review_url" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07674F2D-48E4-6445-B114-EAC6E0A8140D}" name="Table2" displayName="Table2" ref="B2:F31" totalsRowShown="0">
+  <autoFilter ref="B2:F31" xr:uid="{07674F2D-48E4-6445-B114-EAC6E0A8140D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{F57613C8-BD69-D744-AEED-50188C65CB98}" name="pk" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E697A4C6-CB50-0449-AD63-6ACBEE53E663}" name="local_ref"/>
+    <tableColumn id="3" xr3:uid="{53E59951-C7CE-0740-917C-0D957BB1897C}" name="ref_url"/>
+    <tableColumn id="4" xr3:uid="{1E16B457-6000-4743-9439-9D6865E34250}" name="ref_comment"/>
+    <tableColumn id="5" xr3:uid="{7C847953-AD9D-A842-A8FB-0F99590576E4}" name="ref_state"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1A2C81E6-658C-CE40-B517-3E1650CBE932}" name="Table3" displayName="Table3" ref="B2:G15" totalsRowShown="0">
+  <autoFilter ref="B2:G15" xr:uid="{1A2C81E6-658C-CE40-B517-3E1650CBE932}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{397B5144-7BE7-5040-A155-78DE0B051967}" name="pk"/>
+    <tableColumn id="2" xr3:uid="{6EC61B08-E983-9A41-8626-3236E69BF335}" name="db_name"/>
+    <tableColumn id="3" xr3:uid="{C7EA8D4D-F8A5-C24B-AAB0-96220EF0ACA0}" name="db_area"/>
+    <tableColumn id="4" xr3:uid="{9372B5B1-9FFE-4044-AA59-E7B68112EC13}" name="db_access"/>
+    <tableColumn id="5" xr3:uid="{B6ABE2AE-F789-D644-A851-A9D57A7B9E90}" name="db_url" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{4481FFFF-B847-8444-A908-9C4C3EF008EC}" name="db_api"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -833,28 +1223,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068F48D0-C0F6-0F48-8756-0A46C8000F25}">
-  <dimension ref="B2:X24"/>
+  <dimension ref="B2:W25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.5" customWidth="1"/>
-    <col min="15" max="17" width="11.83203125" customWidth="1"/>
-    <col min="19" max="19" width="32.5" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.6640625" customWidth="1"/>
-    <col min="23" max="23" width="31.83203125" customWidth="1"/>
-    <col min="24" max="24" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="49.5" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.1640625" customWidth="1"/>
+    <col min="17" max="18" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.83203125" customWidth="1"/>
+    <col min="20" max="20" width="26.33203125" customWidth="1"/>
+    <col min="21" max="21" width="24.6640625" customWidth="1"/>
+    <col min="22" max="22" width="42.1640625" customWidth="1"/>
+    <col min="23" max="23" width="28.5" customWidth="1"/>
+    <col min="24" max="24" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -862,424 +1263,692 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T2" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="U2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" t="s">
-        <v>74</v>
-      </c>
-      <c r="X2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
       </c>
       <c r="G3">
+        <v>2023</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K3" s="5">
         <v>5</v>
       </c>
-      <c r="H3">
-        <v>2023</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="L3" s="5">
-        <v>5</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" t="s">
+        <v>157</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s">
-        <v>76</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="U3" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>2022</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="K4" s="5">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" t="s">
+        <v>157</v>
+      </c>
+      <c r="R4" t="s">
+        <v>157</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>2023</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="K5" s="5">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>157</v>
+      </c>
+      <c r="R5" t="s">
+        <v>157</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>2018</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" t="s">
+        <v>157</v>
+      </c>
+      <c r="R6" t="s">
+        <v>157</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>2023</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>154</v>
+      </c>
+      <c r="R7" t="s">
+        <v>155</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>2022</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K8" s="5">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>157</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S25" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D24">
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K24">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="J3:J24">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1292,33 +1961,47 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R24">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF8AD8"/>
-        <color rgb="FF92D050"/>
-      </colorScale>
+  <conditionalFormatting sqref="O3:O24">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T24">
-    <cfRule type="containsText" dxfId="0" priority="1" stopIfTrue="1" operator="containsText" text="none declated">
-      <formula>NOT(ISERROR(SEARCH("none declated",T3)))</formula>
+  <conditionalFormatting sqref="E3:E24">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Rejected"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <conditionalFormatting sqref="Q3:R24">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"not mentioned"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B24" xr:uid="{A8AF43FC-C864-0442-BE4D-1BD3B99797F0}">
       <formula1>0</formula1>
     </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F24" xr:uid="{DE81B6F3-8CEE-BE43-8C07-AF5DC780196D}">
+      <formula1>0</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="X3" r:id="rId1" xr:uid="{E81C4BCA-BD3B-DE49-9CBA-A900CAD81DE5}"/>
-    <hyperlink ref="W3" r:id="rId2" xr:uid="{E9E9F286-3719-9D41-8406-A278772784D1}"/>
+    <hyperlink ref="U3" r:id="rId1" xr:uid="{E81C4BCA-BD3B-DE49-9CBA-A900CAD81DE5}"/>
+    <hyperlink ref="T3" r:id="rId2" xr:uid="{E9E9F286-3719-9D41-8406-A278772784D1}"/>
+    <hyperlink ref="T4" r:id="rId3" xr:uid="{855D8C59-E533-F243-8D35-BB19C41246E9}"/>
+    <hyperlink ref="U4" r:id="rId4" xr:uid="{3E4C1918-DEF7-0747-A9E2-76950CC7F431}"/>
+    <hyperlink ref="T5" r:id="rId5" xr:uid="{B95BDBBC-3957-AD4C-A053-D8A6EB290EA3}"/>
+    <hyperlink ref="U5" r:id="rId6" xr:uid="{CC7D7B2D-91D1-FD42-86FB-4E246C8C7916}"/>
+    <hyperlink ref="U6" r:id="rId7" xr:uid="{8BAF2332-A188-AA4B-8AE7-4F5F4FAE5301}"/>
+    <hyperlink ref="T6" r:id="rId8" xr:uid="{5C46D87D-DDAC-8542-8E48-BECF39F3FDDF}"/>
+    <hyperlink ref="U7" r:id="rId9" xr:uid="{96360CC3-DB7E-694B-9048-5BB86BE66E71}"/>
+    <hyperlink ref="T7" r:id="rId10" xr:uid="{18E5466D-8E21-C247-971B-D821BE670D8F}"/>
+    <hyperlink ref="U8" r:id="rId11" xr:uid="{62D0841C-16FA-6543-BA4C-FAECF857B010}"/>
+    <hyperlink ref="T8" r:id="rId12" xr:uid="{00DB0367-9D6E-4547-95D0-96A94B8A5A93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -1336,41 +2019,53 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K3:K24</xm:sqref>
+          <xm:sqref>J3:J24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D8BE40E-808B-1449-96DE-6F417A8458B7}">
-          <x14:formula1>
-            <xm:f>factors!$B$3:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D24</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D9A9145-4E05-3C43-B118-878E0EC8D33E}">
           <x14:formula1>
             <xm:f>factors!$C$3:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E24</xm:sqref>
+          <xm:sqref>D3:D24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{497BC3DD-CEC8-2747-860E-683E9AB8EA62}">
           <x14:formula1>
-            <xm:f>factors!$D$3:$D$7</xm:f>
+            <xm:f>factors!$D$3:$D$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F24</xm:sqref>
+          <xm:sqref>E3:E24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F2C01858-56B7-724A-B24C-A857D3030B5A}">
           <x14:formula1>
             <xm:f>factors!$E$3:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I24</xm:sqref>
+          <xm:sqref>H3:H24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{566B1144-F99A-C245-8189-04C656B42A78}">
           <x14:formula1>
             <xm:f>factors!$F$3:$F$5</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J24</xm:sqref>
+          <xm:sqref>I3:I24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EBAE5E32-2C54-BA45-86E5-09D8CE417A28}">
+          <x14:formula1>
+            <xm:f>factors!$G$3:$G$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>N3:N24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1AA26AE0-EDAD-8C47-ACEB-3F6AE8EEE028}">
+          <x14:formula1>
+            <xm:f>factors!$K$3:$K$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q3:Q24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{23A70AE2-6E88-4942-88A7-3AD2C2C96B60}">
+          <x14:formula1>
+            <xm:f>factors!$L$3:$L$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>R3:R24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1379,16 +2074,411 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCB2E3E-28B4-564E-8BB1-3B4DB94D469B}">
-  <dimension ref="B2:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7254ACE7-56C6-5040-ABFE-788EED7DE7C7}">
+  <dimension ref="B2:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.5" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>153</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>230</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>231</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>262</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>23</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>39</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>41</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>42</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{DDBEEDBC-C59B-F347-81C4-E5D289454442}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{BF9ADDE9-42FD-6144-80A8-6D2BEC48AA2D}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{554BAAE3-B52D-2344-B2A9-5A537AA84CAE}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{4D108C36-C3ED-BD4D-8678-A957D272AB86}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{B51AAB86-BB7A-A04E-B52C-87C99EAF0098}"/>
+    <hyperlink ref="D9" r:id="rId6" tooltip="Persistent link using digital object identifier" xr:uid="{0C83B13D-BEF4-D648-9BAB-9313D8D34664}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{65E1A65D-FC26-C04A-8B00-6C072B1B785A}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{14177875-5902-BA42-BB89-829807748A6F}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{4B18FFEC-632B-FF45-87FC-7C1F4263E7E8}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{57467D71-15B3-A54E-B5F2-39AB1C5ABC95}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{232AA637-A653-E640-B5E4-2FAAD6FA9CB3}"/>
+    <hyperlink ref="D16" r:id="rId12" xr:uid="{A5F63A98-7D68-9946-980F-501B0626203B}"/>
+    <hyperlink ref="D17" r:id="rId13" xr:uid="{499A6C04-A201-1B44-9562-040A64E8D51E}"/>
+    <hyperlink ref="D18" r:id="rId14" xr:uid="{D9FA542D-D2CF-A64A-847E-5E7BCE5C7EC3}"/>
+    <hyperlink ref="D19" r:id="rId15" xr:uid="{82638B17-2FA9-C34B-9273-84664A97D5D2}"/>
+    <hyperlink ref="D20" r:id="rId16" xr:uid="{A3056E1D-FB62-684D-BB9E-C5CB80B1B565}"/>
+    <hyperlink ref="D21" r:id="rId17" xr:uid="{E7AE01A3-1601-7341-B4C9-5F896C054923}"/>
+    <hyperlink ref="D22" r:id="rId18" xr:uid="{4EE0825E-6D80-1144-9A64-71877869500E}"/>
+    <hyperlink ref="D23" r:id="rId19" xr:uid="{75428F7E-776F-7E42-8AD2-5E9916EEB55C}"/>
+    <hyperlink ref="D24" r:id="rId20" xr:uid="{5F683DD9-F48C-3741-BC2B-28CAAFAE6010}"/>
+    <hyperlink ref="D25" r:id="rId21" xr:uid="{6791A95A-B9F0-F44F-B0D2-30AE320FBE32}"/>
+    <hyperlink ref="D26" r:id="rId22" xr:uid="{3C0FC9C9-C7F5-514D-8DDF-EF8BA2BD16B1}"/>
+    <hyperlink ref="D27" r:id="rId23" xr:uid="{5218EBB0-AF4F-7547-B7B8-8FF9D46488DD}"/>
+    <hyperlink ref="D28" r:id="rId24" xr:uid="{99BC6202-2665-1942-A3AC-92A9C8BA9197}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId25"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{55BC28D3-C119-6749-8309-6F00A94F7FB8}">
+          <x14:formula1>
+            <xm:f>factors!$D$3:$D$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F31</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCB2E3E-28B4-564E-8BB1-3B4DB94D469B}">
+  <dimension ref="B2:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
@@ -1396,31 +2486,219 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="16" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{EB20F1B2-27E2-144E-BD0D-ABC79872C71A}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{1BAA6D26-28C9-3448-998B-52C216786840}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{79A1438A-BA8B-6D4D-B964-55EF5A501579}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{EEFED8BD-40E4-EF43-B82A-1D1FA6C0EE83}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{3F36C2BF-9C0C-044E-BEEF-488F74CEE227}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{C7B57264-064D-5142-98C5-C00F7BA750D3}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{E367B06A-5610-7747-AAA4-84876B6006A3}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{1B76ADEF-55A7-9549-BA11-236F8EEA2B28}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{E5F31A04-EFA0-724A-8E97-841263024B29}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{C7C432B2-F56B-2448-9D47-5228D022FFDA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId11"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF7DD50F-F458-2549-A524-EBEA0D208D68}">
+          <x14:formula1>
+            <xm:f>factors!$I$3:$I$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A4B89F4-DB21-124C-8D10-52A35A151DF7}">
+          <x14:formula1>
+            <xm:f>factors!$H$3:$H$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A71DCE1-E80A-F548-89C7-6735B61438DE}">
   <dimension ref="B2:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1434,37 +2712,19 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CDE4AD-85FD-BB4A-8B7D-C6560C068247}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1473,15 +2733,45 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0A5BF4-8BE8-0043-BEB3-2286A0BCA9E3}">
-  <dimension ref="B2:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CDE4AD-85FD-BB4A-8B7D-C6560C068247}">
+  <dimension ref="B2:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0A5BF4-8BE8-0043-BEB3-2286A0BCA9E3}">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1493,17 +2783,33 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8227E6-DB79-7241-B7AF-4C424F805AD9}">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B2:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1511,9 +2817,11 @@
     <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -1530,130 +2838,163 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" t="s">
         <v>79</v>
       </c>
-      <c r="I2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/raw/2024-01-03_review_papers.xlsx
+++ b/src/data/raw/2024-01-03_review_papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lex/Workspace/phd-research-ucc/repositories/mrs-systematic-analysis/src/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F0C77-D63E-694A-B5D4-B48A1CF43F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716B334A-C3E8-0F4F-B4D2-447BBC3C83F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{42FB9FC8-AC2E-C945-8759-9355EAD5812E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20380" activeTab="2" xr2:uid="{42FB9FC8-AC2E-C945-8759-9355EAD5812E}"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="253">
   <si>
     <t>count</t>
   </si>
@@ -347,9 +347,6 @@
     <t>local_ref</t>
   </si>
   <si>
-    <t>Reviews cascade 2000-2020;</t>
-  </si>
-  <si>
     <t>ref_comment</t>
   </si>
   <si>
@@ -509,9 +506,6 @@
     <t>None declared</t>
   </si>
   <si>
-    <t>Funded</t>
-  </si>
-  <si>
     <t>Has CoI</t>
   </si>
   <si>
@@ -530,9 +524,6 @@
     <t>The work aims to overview the papers in the field of Master Surgery Scheduling Problem, identify trends and address the existing research gaps.</t>
   </si>
   <si>
-    <t>Scopus, WoS, Dimensions.ai, SpringerLink, ACM Digital Library, IEEE Xplore, and Google Scholar;</t>
-  </si>
-  <si>
     <t>Scopus</t>
   </si>
   <si>
@@ -542,9 +533,6 @@
     <t>ACM Digital Library</t>
   </si>
   <si>
-    <t>SR0007MY24</t>
-  </si>
-  <si>
     <t>IEEE Xplore</t>
   </si>
   <si>
@@ -597,13 +585,229 @@
   </si>
   <si>
     <t>TRIPOD-AI</t>
+  </si>
+  <si>
+    <t>Data preprocessing + NMF + Python</t>
+  </si>
+  <si>
+    <t>https://ddd.uab.cat/record/276042</t>
+  </si>
+  <si>
+    <t>Data science, analytics and artificial intelligence in e-health: trends, applications and challenges</t>
+  </si>
+  <si>
+    <t>x249</t>
+  </si>
+  <si>
+    <t>not specified</t>
+  </si>
+  <si>
+    <t>Fully funded</t>
+  </si>
+  <si>
+    <t>Partially funded</t>
+  </si>
+  <si>
+    <t>Healthcare related event prediction from textual data with machine learning: A Systematic Literature Review</t>
+  </si>
+  <si>
+    <t>x349</t>
+  </si>
+  <si>
+    <t>Investigate a medical event prediction solution with textual data on the input.</t>
+  </si>
+  <si>
+    <t>Quality assessment method?</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.health.2022.100107</t>
+  </si>
+  <si>
+    <t>Integrated Planning in Hospitals: A Review</t>
+  </si>
+  <si>
+    <t>x338</t>
+  </si>
+  <si>
+    <t>Health departments disconnection</t>
+  </si>
+  <si>
+    <t>Research the existing literature in scope of healthcare integrated planning.</t>
+  </si>
+  <si>
+    <t>Systematic &amp; taxonomy review</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48550/arXiv.2307.05258</t>
+  </si>
+  <si>
+    <t>Taxonomic classification of planning decisions in health care: a structured review of the state of the art in OR/MS</t>
+  </si>
+  <si>
+    <t>x029</t>
+  </si>
+  <si>
+    <t>Structured &amp; taxonomy review</t>
+  </si>
+  <si>
+    <t>Aim to guide healthcare professionals in the field of OR/ MS.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1057/hs.2012.18</t>
+  </si>
+  <si>
+    <t>Reach on definitions and descriptions</t>
+  </si>
+  <si>
+    <t>Data Envelopment Analysis (DEA) and Stichastic Frontier Analysis (SFA)</t>
+  </si>
+  <si>
+    <t>Business Source Elit</t>
+  </si>
+  <si>
+    <t>https://www.ebsco.com/</t>
+  </si>
+  <si>
+    <t>ORchestra</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10729-011-9169-4</t>
+  </si>
+  <si>
+    <t>ORchestra: an online reference database of OR/MS literature in health care</t>
+  </si>
+  <si>
+    <t>http://www.utwente.nl/choir/orchestra/.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-1-4615-5493-6</t>
+  </si>
+  <si>
+    <t>x076</t>
+  </si>
+  <si>
+    <t>Applications of Artificial Intelligence in the Radiology Roundtrip: Process Streamlining, Workflow Optimization, and Beyond</t>
+  </si>
+  <si>
+    <t>Appropriate Use Critaria CDS model</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1053/j.ro.2023.02.003</t>
+  </si>
+  <si>
+    <t>x203</t>
+  </si>
+  <si>
+    <t>Operating room planning and surgical case scheduling: a review of literature</t>
+  </si>
+  <si>
+    <t>Terms definitions</t>
+  </si>
+  <si>
+    <t>Reviews cascade 2000-2020</t>
+  </si>
+  <si>
+    <t>Multiple funding</t>
+  </si>
+  <si>
+    <t>x243</t>
+  </si>
+  <si>
+    <t>A Literature Review of Service Capacity Planning for Medical Technology Department</t>
+  </si>
+  <si>
+    <t>General overview</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.25236/ajmhs.2023.040306</t>
+  </si>
+  <si>
+    <t>Inspec</t>
+  </si>
+  <si>
+    <t>https://www.theiet.org/publishing/inspec/</t>
+  </si>
+  <si>
+    <t>https://francis-press.com/</t>
+  </si>
+  <si>
+    <t>Francis Academic Press</t>
+  </si>
+  <si>
+    <t>x335</t>
+  </si>
+  <si>
+    <t>Stochastic optimization approaches for elective surgery scheduling with downstream capacity constraints: Models, challenges, and opportunities</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.cor.2021.105523</t>
+  </si>
+  <si>
+    <t>Motivated by research collaboration with a large health system in Pennsylvania.</t>
+  </si>
+  <si>
+    <t>Essential work to master</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1287/opre.1090.0795</t>
+  </si>
+  <si>
+    <t>INFORMS</t>
+  </si>
+  <si>
+    <t>https://pubsonline.informs.org/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.amjsurg.2009.07.005</t>
+  </si>
+  <si>
+    <t>Goh 2010</t>
+  </si>
+  <si>
+    <t>Argo 2009</t>
+  </si>
+  <si>
+    <t>Distributionally robust optimization...</t>
+  </si>
+  <si>
+    <t>Cost of cancelled case ~$1700-$2000</t>
+  </si>
+  <si>
+    <t>x073</t>
+  </si>
+  <si>
+    <t>Solutions in radiology services management: a literature review</t>
+  </si>
+  <si>
+    <t>With patients in Facebook and Twitter</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1590/0100-3984.2014.0065</t>
+  </si>
+  <si>
+    <t>Review existig issues with radiology services: “to develop hypotheses; increase investigators’ awareness of a given environ- ment, fact or phenomenon, in order to further and more ac- curately investigate in the future, or to modify and clarify concepts”</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>SciELO</t>
+  </si>
+  <si>
+    <t>https://www.scielo.br/</t>
+  </si>
+  <si>
+    <t>Mendeley</t>
+  </si>
+  <si>
+    <t>https://www.mendeley.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -628,6 +832,20 @@
     <font>
       <sz val="12"/>
       <color rgb="FFCCCCCC"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF569CD6"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -665,7 +883,7 @@
       <alignment horizontal="fill" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -676,25 +894,22 @@
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="fill" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="fill" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -702,7 +917,7 @@
     <cellStyle name="Style 1" xfId="2" xr:uid="{AD703E83-2422-144D-99A8-2ADC57964367}"/>
     <cellStyle name="Style 2" xfId="3" xr:uid="{B9FF1B68-E23A-3C40-85DE-B173152847B9}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="25">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -710,56 +925,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -785,6 +950,28 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -795,13 +982,91 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -828,19 +1093,6 @@
       <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="fill" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -853,6 +1105,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD9D9D9"/>
       <color rgb="FF73FB79"/>
       <color rgb="FFFF8AD8"/>
     </mruColors>
@@ -874,34 +1127,34 @@
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{ED677BE4-361B-8D44-8CD6-F0AEEA011920}" name="count"/>
     <tableColumn id="2" xr3:uid="{FFD7AE9A-C033-3147-9E29-70AB2E220DDA}" name="pk"/>
-    <tableColumn id="4" xr3:uid="{C376E124-1C6B-B449-B8FE-EE59217A91C1}" name="grade"/>
+    <tableColumn id="3" xr3:uid="{9044E5EC-E018-D240-A523-84061052E21C}" name="relevance"/>
     <tableColumn id="5" xr3:uid="{940E5309-CD32-7F45-B31D-0894EAC2C72F}" name="state"/>
-    <tableColumn id="6" xr3:uid="{EE2A8F9A-1083-4842-8797-9642F07F644B}" name="relevance"/>
+    <tableColumn id="6" xr3:uid="{EE2A8F9A-1083-4842-8797-9642F07F644B}" name="grade"/>
     <tableColumn id="7" xr3:uid="{B5956E56-EA0C-C544-81E9-95D5F85516CE}" name="year"/>
     <tableColumn id="8" xr3:uid="{1D433107-5A8B-4B40-8584-1024473C053A}" name="type"/>
     <tableColumn id="9" xr3:uid="{28A710C7-54CD-BC4D-A29E-7C74FFEB5F42}" name="domain"/>
-    <tableColumn id="10" xr3:uid="{743D7D21-EF89-3A44-BB4E-7B8513684FD8}" name="grasp" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{E75B2E15-E73F-2743-8578-2D00366D3074}" name="group" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{DABBD7D1-C850-8F43-BA5A-928F99EA8729}" name="old_pk" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{E3DF3DD3-8A11-6E41-B2D8-7D4D4CC58F2B}" name="title" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{DBF169C0-2F63-7146-A2D1-70994280E63D}" name="method"/>
+    <tableColumn id="10" xr3:uid="{743D7D21-EF89-3A44-BB4E-7B8513684FD8}" name="grasp" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{E75B2E15-E73F-2743-8578-2D00366D3074}" name="group" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{DABBD7D1-C850-8F43-BA5A-928F99EA8729}" name="old_pk" dataDxfId="22"/>
+    <tableColumn id="13" xr3:uid="{E3DF3DD3-8A11-6E41-B2D8-7D4D4CC58F2B}" name="title" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{DBF169C0-2F63-7146-A2D1-70994280E63D}" name="method" dataDxfId="14"/>
     <tableColumn id="17" xr3:uid="{5A2B4EE5-BF86-7042-97F7-E54C28D22FA9}" name="covid19"/>
-    <tableColumn id="18" xr3:uid="{50337C7A-AEB8-6A41-9E80-81EE1EE770BC}" name="objectives" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{50337C7A-AEB8-6A41-9E80-81EE1EE770BC}" name="objectives" dataDxfId="21"/>
     <tableColumn id="19" xr3:uid="{E63FEC1A-8B57-1B47-AAEC-C5489A7E23BF}" name="coi"/>
-    <tableColumn id="20" xr3:uid="{FAB4274B-32D5-714B-AEC0-065807D96185}" name="funding" dataDxfId="11"/>
-    <tableColumn id="21" xr3:uid="{329430AD-233F-7844-8FD3-986B1229B338}" name="comment" dataDxfId="13"/>
-    <tableColumn id="22" xr3:uid="{7F68878B-5789-5D4B-88C5-2071869281AC}" name="url" dataDxfId="14"/>
-    <tableColumn id="23" xr3:uid="{46B5E7B4-3D1C-CD4B-8B57-EAB7415DFC0D}" name="review_url" dataDxfId="15"/>
+    <tableColumn id="20" xr3:uid="{FAB4274B-32D5-714B-AEC0-065807D96185}" name="funding" dataDxfId="20"/>
+    <tableColumn id="21" xr3:uid="{329430AD-233F-7844-8FD3-986B1229B338}" name="comment" dataDxfId="18"/>
+    <tableColumn id="22" xr3:uid="{7F68878B-5789-5D4B-88C5-2071869281AC}" name="url" dataDxfId="16"/>
+    <tableColumn id="23" xr3:uid="{46B5E7B4-3D1C-CD4B-8B57-EAB7415DFC0D}" name="review_url" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07674F2D-48E4-6445-B114-EAC6E0A8140D}" name="Table2" displayName="Table2" ref="B2:F31" totalsRowShown="0">
-  <autoFilter ref="B2:F31" xr:uid="{07674F2D-48E4-6445-B114-EAC6E0A8140D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07674F2D-48E4-6445-B114-EAC6E0A8140D}" name="Table2" displayName="Table2" ref="B2:F37" totalsRowShown="0">
+  <autoFilter ref="B2:F37" xr:uid="{07674F2D-48E4-6445-B114-EAC6E0A8140D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F57613C8-BD69-D744-AEED-50188C65CB98}" name="pk" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{F57613C8-BD69-D744-AEED-50188C65CB98}" name="pk" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{E697A4C6-CB50-0449-AD63-6ACBEE53E663}" name="local_ref"/>
     <tableColumn id="3" xr3:uid="{53E59951-C7CE-0740-917C-0D957BB1897C}" name="ref_url"/>
     <tableColumn id="4" xr3:uid="{1E16B457-6000-4743-9439-9D6865E34250}" name="ref_comment"/>
@@ -912,8 +1165,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1A2C81E6-658C-CE40-B517-3E1650CBE932}" name="Table3" displayName="Table3" ref="B2:G15" totalsRowShown="0">
-  <autoFilter ref="B2:G15" xr:uid="{1A2C81E6-658C-CE40-B517-3E1650CBE932}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1A2C81E6-658C-CE40-B517-3E1650CBE932}" name="Table3" displayName="Table3" ref="B2:G35" totalsRowShown="0">
+  <autoFilter ref="B2:G35" xr:uid="{1A2C81E6-658C-CE40-B517-3E1650CBE932}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{397B5144-7BE7-5040-A155-78DE0B051967}" name="pk"/>
     <tableColumn id="2" xr3:uid="{6EC61B08-E983-9A41-8626-3236E69BF335}" name="db_name"/>
@@ -1223,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068F48D0-C0F6-0F48-8756-0A46C8000F25}">
-  <dimension ref="B2:W25"/>
+  <dimension ref="B1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1234,27 +1487,30 @@
     <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="49.5" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="11" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.83203125" style="16" customWidth="1"/>
+    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.1640625" customWidth="1"/>
-    <col min="17" max="18" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.83203125" customWidth="1"/>
-    <col min="20" max="20" width="26.33203125" customWidth="1"/>
-    <col min="21" max="21" width="24.6640625" customWidth="1"/>
-    <col min="22" max="22" width="42.1640625" customWidth="1"/>
-    <col min="23" max="23" width="28.5" customWidth="1"/>
-    <col min="24" max="24" width="30.5" customWidth="1"/>
+    <col min="16" max="16" width="51.5" customWidth="1"/>
+    <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.83203125" style="16" customWidth="1"/>
+    <col min="21" max="21" width="33.1640625" customWidth="1"/>
+    <col min="22" max="22" width="28.5" customWidth="1"/>
+    <col min="23" max="23" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="M1"/>
+      <c r="T1"/>
+    </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
@@ -1263,13 +1519,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -1324,14 +1580,14 @@
       <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
+      <c r="D3">
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="F3">
-        <v>5</v>
+      <c r="F3" t="s">
+        <v>26</v>
       </c>
       <c r="G3">
         <v>2023</v>
@@ -1351,23 +1607,26 @@
       <c r="L3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="16" t="s">
         <v>68</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R3" t="s">
-        <v>157</v>
-      </c>
-      <c r="S3" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="14" t="s">
         <v>71</v>
       </c>
       <c r="U3" s="4" t="s">
@@ -1381,14 +1640,14 @@
       <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
+      <c r="D4">
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="F4">
-        <v>5</v>
+      <c r="F4" t="s">
+        <v>25</v>
       </c>
       <c r="G4">
         <v>2022</v>
@@ -1408,10 +1667,10 @@
       <c r="L4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="O4">
@@ -1419,15 +1678,15 @@
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R4" t="s">
-        <v>157</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="T4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="S4" t="s">
+        <v>220</v>
+      </c>
+      <c r="T4" s="14" t="s">
         <v>97</v>
       </c>
       <c r="U4" s="4" t="s">
@@ -1441,14 +1700,14 @@
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
+      <c r="D5">
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="F5">
-        <v>5</v>
+      <c r="F5" t="s">
+        <v>25</v>
       </c>
       <c r="G5">
         <v>2023</v>
@@ -1466,31 +1725,31 @@
         <v>5</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N5" t="s">
-        <v>181</v>
+      <c r="N5" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R5" t="s">
-        <v>157</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
+      </c>
+      <c r="S5" t="s">
+        <v>176</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>69</v>
@@ -1503,14 +1762,14 @@
       <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
+      <c r="D6">
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="F6">
-        <v>4</v>
+      <c r="F6" t="s">
+        <v>31</v>
       </c>
       <c r="G6">
         <v>2018</v>
@@ -1528,26 +1787,29 @@
         <v>5</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R6" t="s">
-        <v>157</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
+      </c>
+      <c r="S6" t="s">
+        <v>144</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>69</v>
@@ -1560,14 +1822,14 @@
       <c r="C7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
+      <c r="D7">
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="F7">
-        <v>4</v>
+      <c r="F7" t="s">
+        <v>25</v>
       </c>
       <c r="G7">
         <v>2023</v>
@@ -1585,28 +1847,31 @@
         <v>5</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M7" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>152</v>
+      <c r="N7" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R7" t="s">
-        <v>155</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>153</v>
+        <v>186</v>
+      </c>
+      <c r="S7" t="s">
+        <v>148</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="U7" s="4" t="s">
         <v>69</v>
@@ -1619,14 +1884,14 @@
       <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
+      <c r="D8">
+        <v>5</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="F8">
-        <v>5</v>
+      <c r="F8" t="s">
+        <v>27</v>
       </c>
       <c r="G8">
         <v>2022</v>
@@ -1644,28 +1909,31 @@
         <v>5</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q8" t="s">
-        <v>157</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
+      </c>
+      <c r="R8" t="s">
+        <v>155</v>
+      </c>
+      <c r="S8" t="s">
+        <v>175</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>69</v>
@@ -1678,15 +1946,58 @@
       <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="3"/>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>2023</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="K9" s="5">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
       <c r="P9" s="3"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="3"/>
+      <c r="Q9" t="s">
+        <v>154</v>
+      </c>
+      <c r="R9" t="s">
+        <v>187</v>
+      </c>
+      <c r="S9" t="s">
+        <v>181</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10">
@@ -1695,15 +2006,60 @@
       <c r="C10" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="3"/>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>2022</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="K10" s="5">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>155</v>
+      </c>
+      <c r="R10" t="s">
+        <v>155</v>
+      </c>
+      <c r="S10" t="s">
+        <v>191</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11">
@@ -1712,15 +2068,60 @@
       <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="3"/>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>2023</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="K11" s="5">
+        <v>4</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>155</v>
+      </c>
+      <c r="R11" t="s">
+        <v>186</v>
+      </c>
+      <c r="S11" t="s">
+        <v>195</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12">
@@ -1729,15 +2130,60 @@
       <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="3"/>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>2012</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="K12" s="5">
+        <v>6</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>155</v>
+      </c>
+      <c r="R12" t="s">
+        <v>186</v>
+      </c>
+      <c r="S12" t="s">
+        <v>204</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13">
@@ -1746,15 +2192,58 @@
       <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="3"/>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>2023</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K13" s="5">
+        <v>6</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
       <c r="P13" s="3"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="3"/>
+      <c r="Q13" t="s">
+        <v>154</v>
+      </c>
+      <c r="R13" t="s">
+        <v>156</v>
+      </c>
+      <c r="S13" t="s">
+        <v>215</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14">
@@ -1763,15 +2252,58 @@
       <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="3"/>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14">
+        <v>2019</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="K14" s="5">
+        <v>6</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
       <c r="P14" s="3"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="3"/>
+      <c r="Q14" t="s">
+        <v>154</v>
+      </c>
+      <c r="R14" t="s">
+        <v>221</v>
+      </c>
+      <c r="S14" t="s">
+        <v>219</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B15">
@@ -1780,15 +2312,58 @@
       <c r="C15" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="3"/>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15">
+        <v>2023</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="K15" s="5">
+        <v>6</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
       <c r="P15" s="3"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="3"/>
+      <c r="Q15" t="s">
+        <v>155</v>
+      </c>
+      <c r="R15" t="s">
+        <v>155</v>
+      </c>
+      <c r="S15" t="s">
+        <v>224</v>
+      </c>
+      <c r="T15" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16">
@@ -1797,15 +2372,60 @@
       <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="3"/>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>2022</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="K16" s="5">
+        <v>6</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>155</v>
+      </c>
+      <c r="R16" t="s">
+        <v>155</v>
+      </c>
+      <c r="S16" t="s">
+        <v>234</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17">
@@ -1814,15 +2434,60 @@
       <c r="C17" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="3"/>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>2015</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>155</v>
+      </c>
+      <c r="R17" t="s">
+        <v>155</v>
+      </c>
+      <c r="S17" t="s">
+        <v>245</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18">
@@ -1834,12 +2499,11 @@
       <c r="J18" s="1"/>
       <c r="K18" s="5"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="3"/>
+      <c r="N18" s="17"/>
       <c r="P18" s="3"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="3"/>
+      <c r="U18" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19">
@@ -1851,12 +2515,11 @@
       <c r="J19" s="1"/>
       <c r="K19" s="5"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="3"/>
+      <c r="N19" s="17"/>
       <c r="P19" s="3"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="3"/>
+      <c r="U19" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20">
@@ -1868,12 +2531,11 @@
       <c r="J20" s="1"/>
       <c r="K20" s="5"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="3"/>
+      <c r="N20" s="17"/>
       <c r="P20" s="3"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="3"/>
+      <c r="U20" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21">
@@ -1885,12 +2547,11 @@
       <c r="J21" s="1"/>
       <c r="K21" s="5"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="3"/>
+      <c r="N21" s="17"/>
       <c r="P21" s="3"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="3"/>
+      <c r="U21" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22">
@@ -1902,12 +2563,11 @@
       <c r="J22" s="1"/>
       <c r="K22" s="5"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="3"/>
+      <c r="N22" s="17"/>
       <c r="P22" s="3"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="3"/>
+      <c r="U22" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23">
@@ -1919,12 +2579,11 @@
       <c r="J23" s="1"/>
       <c r="K23" s="5"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="3"/>
+      <c r="N23" s="17"/>
       <c r="P23" s="3"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="3"/>
+      <c r="U23" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24">
@@ -1936,19 +2595,23 @@
       <c r="J24" s="1"/>
       <c r="K24" s="5"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="3"/>
+      <c r="N24" s="17"/>
       <c r="P24" s="3"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="3"/>
+      <c r="U24" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="S25" s="3"/>
+      <c r="R25" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E3:E24">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>"Rejected"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J3:J24">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1962,25 +2625,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O24">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E24">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"Rejected"</formula>
+  <conditionalFormatting sqref="Q3:R24">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="notEqual">
+      <formula>"Not mentioned"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>"not mentioned"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:R24">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"not mentioned"</formula>
+  <conditionalFormatting sqref="N3:N24">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
+      <formula>"not specified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"not specified"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I24">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"None"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B24" xr:uid="{A8AF43FC-C864-0442-BE4D-1BD3B99797F0}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F24" xr:uid="{DE81B6F3-8CEE-BE43-8C07-AF5DC780196D}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D24" xr:uid="{DE81B6F3-8CEE-BE43-8C07-AF5DC780196D}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
@@ -1998,10 +2672,21 @@
     <hyperlink ref="T7" r:id="rId10" xr:uid="{18E5466D-8E21-C247-971B-D821BE670D8F}"/>
     <hyperlink ref="U8" r:id="rId11" xr:uid="{62D0841C-16FA-6543-BA4C-FAECF857B010}"/>
     <hyperlink ref="T8" r:id="rId12" xr:uid="{00DB0367-9D6E-4547-95D0-96A94B8A5A93}"/>
+    <hyperlink ref="U9" r:id="rId13" xr:uid="{5F1B7AA2-AB53-B146-A204-C7F830508B36}"/>
+    <hyperlink ref="U10" r:id="rId14" xr:uid="{3E6CBF67-FB43-F04E-AAD6-386B2E32BB6A}"/>
+    <hyperlink ref="U11:U24" r:id="rId15" display="https://drive.google.com/file/d/1wbAdCvaoGtQI5B9cn7DfkgudKKb9hup6/view?usp=drive_link" xr:uid="{A8D126F0-00FC-5345-B522-A248592AFEAA}"/>
+    <hyperlink ref="T10" r:id="rId16" tooltip="Persistent link using digital object identifier" xr:uid="{685C278F-F99D-5742-A8B7-26B6BFB0EB24}"/>
+    <hyperlink ref="T11" r:id="rId17" xr:uid="{7ECDFC46-5F0C-CE44-9950-5CACDC2CF1D4}"/>
+    <hyperlink ref="T12" r:id="rId18" xr:uid="{A0BF8156-9938-3146-8233-9114FE8D32D2}"/>
+    <hyperlink ref="T13" r:id="rId19" xr:uid="{035DF826-1461-0640-8A7B-5D225F15011C}"/>
+    <hyperlink ref="T14" r:id="rId20" xr:uid="{6AD489C8-906C-7741-9842-F838D7E79EEB}"/>
+    <hyperlink ref="T15" r:id="rId21" xr:uid="{CA3CFD41-4343-BF47-BDBD-E6941AB200A3}"/>
+    <hyperlink ref="T16" r:id="rId22" xr:uid="{DD2FF52B-8D35-A44E-B0ED-45D5D61D0F07}"/>
+    <hyperlink ref="T17" r:id="rId23" xr:uid="{51F7187F-5358-2849-8472-7C3E4E859657}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -2029,7 +2714,7 @@
           <x14:formula1>
             <xm:f>factors!$C$3:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D24</xm:sqref>
+          <xm:sqref>F3:F24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{497BC3DD-CEC8-2747-860E-683E9AB8EA62}">
           <x14:formula1>
@@ -2045,7 +2730,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{566B1144-F99A-C245-8189-04C656B42A78}">
           <x14:formula1>
-            <xm:f>factors!$F$3:$F$5</xm:f>
+            <xm:f>factors!$F$3:$F$6</xm:f>
           </x14:formula1>
           <xm:sqref>I3:I24</xm:sqref>
         </x14:dataValidation>
@@ -2075,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7254ACE7-56C6-5040-ABFE-788EED7DE7C7}">
-  <dimension ref="B2:F31"/>
+  <dimension ref="B2:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2101,10 +2786,10 @@
         <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -2114,291 +2799,291 @@
       <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>107</v>
+      <c r="D3" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="E3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>43</v>
       </c>
       <c r="C5">
         <v>153</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>108</v>
+      <c r="D5" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6">
         <v>32</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>111</v>
+      <c r="D6" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>43</v>
       </c>
       <c r="C7">
         <v>19</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>106</v>
+      <c r="D7" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" t="s">
         <v>43</v>
       </c>
       <c r="C8">
         <v>230</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>112</v>
+      <c r="D8" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>110</v>
+      <c r="D9" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>109</v>
+      <c r="D10" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>105</v>
+      <c r="D11" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>43</v>
       </c>
       <c r="C12">
         <v>231</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>113</v>
+      <c r="D12" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+      <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13">
         <v>262</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>114</v>
+      <c r="D13" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
       <c r="C15">
         <v>11</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>122</v>
+      <c r="D15" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>44</v>
       </c>
       <c r="C16">
         <v>16</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
+      <c r="D16" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>44</v>
       </c>
       <c r="C17">
         <v>18</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+      <c r="D17" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>44</v>
       </c>
       <c r="C18">
         <v>19</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>125</v>
+      <c r="D18" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>126</v>
+      <c r="D19" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>44</v>
       </c>
       <c r="C20">
         <v>21</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
+      <c r="D20" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>44</v>
       </c>
       <c r="C21">
         <v>22</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
+      <c r="D21" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>44</v>
       </c>
       <c r="C22">
         <v>23</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="6" t="s">
+      <c r="D22" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>44</v>
       </c>
       <c r="C23">
         <v>24</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>130</v>
+      <c r="D23" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>44</v>
       </c>
       <c r="C24">
         <v>25</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="6" t="s">
+      <c r="D24" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>44</v>
       </c>
       <c r="C25">
         <v>39</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="6" t="s">
+      <c r="D25" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>44</v>
       </c>
       <c r="C26">
         <v>40</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>135</v>
+      <c r="D26" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>44</v>
       </c>
       <c r="C27">
         <v>41</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
+      <c r="D27" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>44</v>
       </c>
       <c r="C28">
         <v>42</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D28" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>44</v>
       </c>
@@ -2406,16 +3091,79 @@
         <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31">
+        <v>91</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32">
+        <v>226</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" t="s">
+        <v>210</v>
+      </c>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="12"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" t="s">
+        <v>241</v>
+      </c>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2444,10 +3192,14 @@
     <hyperlink ref="D26" r:id="rId22" xr:uid="{3C0FC9C9-C7F5-514D-8DDF-EF8BA2BD16B1}"/>
     <hyperlink ref="D27" r:id="rId23" xr:uid="{5218EBB0-AF4F-7547-B7B8-8FF9D46488DD}"/>
     <hyperlink ref="D28" r:id="rId24" xr:uid="{99BC6202-2665-1942-A3AC-92A9C8BA9197}"/>
+    <hyperlink ref="D32" r:id="rId25" xr:uid="{FCFBC645-92CC-ED4C-9E1A-1AE75129D510}"/>
+    <hyperlink ref="D31" r:id="rId26" xr:uid="{D5FD0FEA-0E5D-B74A-9920-3B8F9A04A4BD}"/>
+    <hyperlink ref="D34" r:id="rId27" xr:uid="{CB62A20C-2A06-3F49-B0ED-47D641C90CC2}"/>
+    <hyperlink ref="D35" r:id="rId28" xr:uid="{55A3C2F6-C9A4-E54D-8B07-E30F20F15CD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2456,7 +3208,7 @@
           <x14:formula1>
             <xm:f>factors!$D$3:$D$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F31</xm:sqref>
+          <xm:sqref>F36:F37 F3:F34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2466,10 +3218,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCB2E3E-28B4-564E-8BB1-3B4DB94D469B}">
-  <dimension ref="B2:I20"/>
+  <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2478,7 +3230,7 @@
     <col min="3" max="3" width="21.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="6" max="6" width="35.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
@@ -2506,13 +3258,13 @@
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>139</v>
+      <c r="F3" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
@@ -2520,13 +3272,13 @@
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>142</v>
+      <c r="F4" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
@@ -2534,13 +3286,13 @@
         <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>143</v>
+      <c r="F5" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
@@ -2548,13 +3300,13 @@
         <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>169</v>
+      <c r="F7" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
@@ -2562,13 +3314,13 @@
         <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>171</v>
+      <c r="F8" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -2576,13 +3328,13 @@
         <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D9" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>172</v>
+      <c r="F9" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
@@ -2590,13 +3342,13 @@
         <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>174</v>
+      <c r="F10" s="6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
@@ -2604,13 +3356,13 @@
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>175</v>
+      <c r="F11" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
@@ -2618,13 +3370,13 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>176</v>
+      <c r="F12" s="6" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
@@ -2632,31 +3384,255 @@
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>177</v>
+      <c r="F13" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F14" s="9"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I20" s="16" t="s">
-        <v>162</v>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="12"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>251</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C3:C35">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>COUNTIF($C$3:$C3,$C3)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{EB20F1B2-27E2-144E-BD0D-ABC79872C71A}"/>
     <hyperlink ref="F4" r:id="rId2" xr:uid="{1BAA6D26-28C9-3448-998B-52C216786840}"/>
@@ -2668,10 +3644,17 @@
     <hyperlink ref="F11" r:id="rId8" xr:uid="{1B76ADEF-55A7-9549-BA11-236F8EEA2B28}"/>
     <hyperlink ref="F12" r:id="rId9" xr:uid="{E5F31A04-EFA0-724A-8E97-841263024B29}"/>
     <hyperlink ref="F13" r:id="rId10" xr:uid="{C7C432B2-F56B-2448-9D47-5228D022FFDA}"/>
+    <hyperlink ref="F19" r:id="rId11" xr:uid="{236562A3-0D3D-014F-B62E-5214FF63F67F}"/>
+    <hyperlink ref="F22" r:id="rId12" xr:uid="{4DA630F7-0AE9-434A-8D87-BED4BC175DA5}"/>
+    <hyperlink ref="F27" r:id="rId13" xr:uid="{403E589F-9C4A-4F46-A633-73950EBA225E}"/>
+    <hyperlink ref="F29" r:id="rId14" xr:uid="{E83A2FFE-381A-704E-B1E3-75FA9D102B47}"/>
+    <hyperlink ref="F31" r:id="rId15" xr:uid="{0CA930B9-8A70-0748-B269-CB8C06557907}"/>
+    <hyperlink ref="F34" r:id="rId16" xr:uid="{66A76C66-F913-B340-BEDA-147F8159ABBC}"/>
+    <hyperlink ref="F35" r:id="rId17" xr:uid="{4B98ED98-7408-6042-B386-64B2B53F986D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2680,13 +3663,13 @@
           <x14:formula1>
             <xm:f>factors!$I$3:$I$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D15</xm:sqref>
+          <xm:sqref>D3:D35</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A4B89F4-DB21-124C-8D10-52A35A151DF7}">
           <x14:formula1>
             <xm:f>factors!$H$3:$H$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E15</xm:sqref>
+          <xm:sqref>E3:E32 E34:E35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2785,18 +3768,18 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2809,16 +3792,17 @@
   <dimension ref="B2:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
@@ -2882,10 +3866,10 @@
         <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -2914,10 +3898,10 @@
         <v>81</v>
       </c>
       <c r="K4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L4" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -2943,10 +3927,10 @@
         <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L5" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -2956,11 +3940,17 @@
       <c r="D6" t="s">
         <v>36</v>
       </c>
+      <c r="F6" t="s">
+        <v>248</v>
+      </c>
       <c r="G6" t="s">
         <v>96</v>
       </c>
       <c r="H6" t="s">
         <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -2971,7 +3961,10 @@
         <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>181</v>
+        <v>177</v>
+      </c>
+      <c r="L7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -2979,17 +3972,26 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="G8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>30</v>
       </c>
+      <c r="G9" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">

--- a/src/data/raw/2024-01-03_review_papers.xlsx
+++ b/src/data/raw/2024-01-03_review_papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lex/Workspace/phd-research-ucc/repositories/mrs-systematic-analysis/src/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716B334A-C3E8-0F4F-B4D2-447BBC3C83F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A9534F-F02C-614A-A20D-CF8FF8C72FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20380" activeTab="2" xr2:uid="{42FB9FC8-AC2E-C945-8759-9355EAD5812E}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{42FB9FC8-AC2E-C945-8759-9355EAD5812E}"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="345">
   <si>
     <t>count</t>
   </si>
@@ -801,6 +801,282 @@
   </si>
   <si>
     <t>https://www.mendeley.com/</t>
+  </si>
+  <si>
+    <t>x121</t>
+  </si>
+  <si>
+    <t>Approaches to the Algorithmic Allocation of Public Resources: A Cross-disciplinary Review</t>
+  </si>
+  <si>
+    <t>Cross-disciplinary Review</t>
+  </si>
+  <si>
+    <t>To overview of the existing works in the field of public resource allocation and suggest guidance for the policy makers.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48550/arXiv.2310.06475</t>
+  </si>
+  <si>
+    <t>Healthcare, disaster relief, organ transplantation, homelessness, welfare;</t>
+  </si>
+  <si>
+    <t>x128</t>
+  </si>
+  <si>
+    <t>Healthcare Operations Research and Management under Pandemics: a Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase of social welfare from Healthcare System's point of view and public policymakers. </t>
+  </si>
+  <si>
+    <t>Papers on medical resource allocation under pandemic pressure.</t>
+  </si>
+  <si>
+    <t>https://optimization-online.org/2023/10/healthcare-operations-research-and-management-under-pandemics-a-review/</t>
+  </si>
+  <si>
+    <t>x333</t>
+  </si>
+  <si>
+    <t>The effect of overlapping surgical scheduling on operating theatre productivity: a narrative review</t>
+  </si>
+  <si>
+    <t>Narrative review</t>
+  </si>
+  <si>
+    <t>Analyse the effect of overlapping surgeries in scope of operation theatre time usage, ethics, training and safety asects.</t>
+  </si>
+  <si>
+    <t>COVID19 concequence &gt; 6 million patients in waiting list; Turnover = 15% = 72min in 8-h list;</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/anae.15797</t>
+  </si>
+  <si>
+    <t>x228</t>
+  </si>
+  <si>
+    <t>Operating room planning and scheduling: A literature review</t>
+  </si>
+  <si>
+    <t>Summarise the current trends in operating room planning and scheduling, and identify the directions for further research.</t>
+  </si>
+  <si>
+    <t>Data envelopment analysis (DEA);</t>
+  </si>
+  <si>
+    <t>https://isidore.co/CalibreLibrary/Garey,%20Michael%20R_/Computers%20and%20Intractability_%20A%20Guide%20to%20the%20Theory%20of%20NP-completeness%20(8927)/Computers%20and%20Intractability_%20A%20Guide%20to%20t%20-%20Garey,%20Michael%20R_.pdf</t>
+  </si>
+  <si>
+    <t>Problem complexities;</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1097/01.ta.0000220428.91423.78</t>
+  </si>
+  <si>
+    <t>Implemented</t>
+  </si>
+  <si>
+    <t>SR0020BE11</t>
+  </si>
+  <si>
+    <t>SR0020BE12</t>
+  </si>
+  <si>
+    <t>SR0020BE13</t>
+  </si>
+  <si>
+    <t>SR0020BE14</t>
+  </si>
+  <si>
+    <t>SR0020BE15</t>
+  </si>
+  <si>
+    <t>https://ideas.repec.org/a/eee/ejores/v140y2002i3p541-561.html</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1097/00000539-200201000-00027</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1287/inte.32.2.63.57</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/WSC.2004.1371558</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1023/A:1019767900627</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10729-007-9011-1</t>
+  </si>
+  <si>
+    <t>SR0020BE16</t>
+  </si>
+  <si>
+    <t>SR0020BE17</t>
+  </si>
+  <si>
+    <t>SR0020BE18</t>
+  </si>
+  <si>
+    <t>Current Contents Connect</t>
+  </si>
+  <si>
+    <t>x235</t>
+  </si>
+  <si>
+    <t>Surgical demand scheduling: a review</t>
+  </si>
+  <si>
+    <t>Adminssions Scheduling and Control System (ASCS);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To address high meddical resouce cost, low healthcare facility utilisatation, and increasing demand for departments dependined on the surgical suite. </t>
+  </si>
+  <si>
+    <t>https://api.semanticscholar.org/CorpusID:46189607</t>
+  </si>
+  <si>
+    <t>x090</t>
+  </si>
+  <si>
+    <t>Assess the impact of modern technologies on healthcare.</t>
+  </si>
+  <si>
+    <t>A Review of Reinforcement Learning for Natural Language Processing, and Applications in Healthcare</t>
+  </si>
+  <si>
+    <t>General overview of ML tools in health care</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48550/arXiv.2310.18354</t>
+  </si>
+  <si>
+    <t>SR0022US24</t>
+  </si>
+  <si>
+    <t>SR0022US25</t>
+  </si>
+  <si>
+    <t>SR0022US26</t>
+  </si>
+  <si>
+    <t>SR0022US27</t>
+  </si>
+  <si>
+    <t>A Comparative Study of Artificial Intelligence Applications in the Healthcare Sector</t>
+  </si>
+  <si>
+    <t>x101</t>
+  </si>
+  <si>
+    <t>Analyse the gaps between the practicies of AI in Bahrain and other countries around the world.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-981-99-6101-6_48</t>
+  </si>
+  <si>
+    <t>021IRSchedulingReview2020</t>
+  </si>
+  <si>
+    <t>Scientometric analysis</t>
+  </si>
+  <si>
+    <t>Systematic review, Meta-analysis (PRISMA)</t>
+  </si>
+  <si>
+    <t>A comprehensive review and analysis of operating room and surgery scheduling</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15v0LOc7g5FOKGlNE7d0ZF2y1cbVMH6Ua/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11831-020-09432-2</t>
+  </si>
+  <si>
+    <t>Scheduling OT on the strategic, tactical, and operational levels of planning</t>
+  </si>
+  <si>
+    <t>SR0024IR20</t>
+  </si>
+  <si>
+    <t>Operating Room Turnover Time: Definitions and Future Research Needs</t>
+  </si>
+  <si>
+    <t>SR0025US19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of possible constrains for OT turnover time estimation </t>
+  </si>
+  <si>
+    <t>023USORTurnover2019</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1KDAaRtS-xTcMF-AO0klEMLyJ_jbFphUc/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/1071181319631301</t>
+  </si>
+  <si>
+    <t>Healthcare scheduling in optimization context: a review</t>
+  </si>
+  <si>
+    <t>SR0026MY21</t>
+  </si>
+  <si>
+    <t>024MYSchedulingReview2021</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15rAeJbb7ZCoS3GI_n0ZV-2UYJccbt137/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s12553-021-00547-5</t>
+  </si>
+  <si>
+    <t>Hard/soft constraints; Open-source db; Specialty statistics</t>
+  </si>
+  <si>
+    <t>032IRSchedulingReview2020</t>
+  </si>
+  <si>
+    <t>AR0027IR20</t>
+  </si>
+  <si>
+    <t>A state of the art review of intelligent scheduling</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10462-018-9667-6</t>
+  </si>
+  <si>
+    <t>044UGOpResInDevNatReview2023</t>
+  </si>
+  <si>
+    <t>The Application of Operations Research Information System Tools in Hospital Operations Management in Developing Nations: A Systematic Literature Review</t>
+  </si>
+  <si>
+    <t>SR0029UG23</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uthkMoPEtUkt8wRKjF7zh3Y-hU4KVVH7/view</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4314/udslj.v18i1.9</t>
+  </si>
+  <si>
+    <t>Comparison of OR&amp;M in developing countries and developed nations</t>
+  </si>
+  <si>
+    <t>Analyse OR&amp;M situation in developing nations of Africa</t>
+  </si>
+  <si>
+    <t>Pros and cons of metaheuristics</t>
+  </si>
+  <si>
+    <t>Survey intelligent scheduling systems</t>
+  </si>
+  <si>
+    <t>Extencive review</t>
   </si>
 </sst>
 </file>
@@ -883,7 +1159,7 @@
       <alignment horizontal="fill" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -904,12 +1180,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -917,7 +1194,7 @@
     <cellStyle name="Style 1" xfId="2" xr:uid="{AD703E83-2422-144D-99A8-2ADC57964367}"/>
     <cellStyle name="Style 2" xfId="3" xr:uid="{B9FF1B68-E23A-3C40-85DE-B173152847B9}"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -937,22 +1214,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -992,81 +1253,42 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1090,7 +1312,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1122,8 +1349,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02E67EF5-CF56-8A46-AAD1-7367959AC624}" name="Table1" displayName="Table1" ref="B2:U24" totalsRowShown="0">
-  <autoFilter ref="B2:U24" xr:uid="{02E67EF5-CF56-8A46-AAD1-7367959AC624}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02E67EF5-CF56-8A46-AAD1-7367959AC624}" name="Table1" displayName="Table1" ref="B2:U34" totalsRowShown="0">
+  <autoFilter ref="B2:U34" xr:uid="{02E67EF5-CF56-8A46-AAD1-7367959AC624}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{ED677BE4-361B-8D44-8CD6-F0AEEA011920}" name="count"/>
     <tableColumn id="2" xr3:uid="{FFD7AE9A-C033-3147-9E29-70AB2E220DDA}" name="pk"/>
@@ -1133,28 +1360,28 @@
     <tableColumn id="7" xr3:uid="{B5956E56-EA0C-C544-81E9-95D5F85516CE}" name="year"/>
     <tableColumn id="8" xr3:uid="{1D433107-5A8B-4B40-8584-1024473C053A}" name="type"/>
     <tableColumn id="9" xr3:uid="{28A710C7-54CD-BC4D-A29E-7C74FFEB5F42}" name="domain"/>
-    <tableColumn id="10" xr3:uid="{743D7D21-EF89-3A44-BB4E-7B8513684FD8}" name="grasp" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{E75B2E15-E73F-2743-8578-2D00366D3074}" name="group" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{DABBD7D1-C850-8F43-BA5A-928F99EA8729}" name="old_pk" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{E3DF3DD3-8A11-6E41-B2D8-7D4D4CC58F2B}" name="title" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{DBF169C0-2F63-7146-A2D1-70994280E63D}" name="method" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{743D7D21-EF89-3A44-BB4E-7B8513684FD8}" name="grasp" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{E75B2E15-E73F-2743-8578-2D00366D3074}" name="group" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{DABBD7D1-C850-8F43-BA5A-928F99EA8729}" name="old_pk" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{E3DF3DD3-8A11-6E41-B2D8-7D4D4CC58F2B}" name="title" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{DBF169C0-2F63-7146-A2D1-70994280E63D}" name="method" dataDxfId="15"/>
     <tableColumn id="17" xr3:uid="{5A2B4EE5-BF86-7042-97F7-E54C28D22FA9}" name="covid19"/>
-    <tableColumn id="18" xr3:uid="{50337C7A-AEB8-6A41-9E80-81EE1EE770BC}" name="objectives" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{50337C7A-AEB8-6A41-9E80-81EE1EE770BC}" name="objectives" dataDxfId="12"/>
     <tableColumn id="19" xr3:uid="{E63FEC1A-8B57-1B47-AAEC-C5489A7E23BF}" name="coi"/>
-    <tableColumn id="20" xr3:uid="{FAB4274B-32D5-714B-AEC0-065807D96185}" name="funding" dataDxfId="20"/>
-    <tableColumn id="21" xr3:uid="{329430AD-233F-7844-8FD3-986B1229B338}" name="comment" dataDxfId="18"/>
-    <tableColumn id="22" xr3:uid="{7F68878B-5789-5D4B-88C5-2071869281AC}" name="url" dataDxfId="16"/>
-    <tableColumn id="23" xr3:uid="{46B5E7B4-3D1C-CD4B-8B57-EAB7415DFC0D}" name="review_url" dataDxfId="17"/>
+    <tableColumn id="20" xr3:uid="{FAB4274B-32D5-714B-AEC0-065807D96185}" name="funding" dataDxfId="14"/>
+    <tableColumn id="21" xr3:uid="{329430AD-233F-7844-8FD3-986B1229B338}" name="comment" dataDxfId="11"/>
+    <tableColumn id="22" xr3:uid="{7F68878B-5789-5D4B-88C5-2071869281AC}" name="url" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{46B5E7B4-3D1C-CD4B-8B57-EAB7415DFC0D}" name="review_url" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07674F2D-48E4-6445-B114-EAC6E0A8140D}" name="Table2" displayName="Table2" ref="B2:F37" totalsRowShown="0">
-  <autoFilter ref="B2:F37" xr:uid="{07674F2D-48E4-6445-B114-EAC6E0A8140D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07674F2D-48E4-6445-B114-EAC6E0A8140D}" name="Table2" displayName="Table2" ref="B2:F46" totalsRowShown="0">
+  <autoFilter ref="B2:F46" xr:uid="{07674F2D-48E4-6445-B114-EAC6E0A8140D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F57613C8-BD69-D744-AEED-50188C65CB98}" name="pk" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{F57613C8-BD69-D744-AEED-50188C65CB98}" name="pk" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{E697A4C6-CB50-0449-AD63-6ACBEE53E663}" name="local_ref"/>
     <tableColumn id="3" xr3:uid="{53E59951-C7CE-0740-917C-0D957BB1897C}" name="ref_url"/>
     <tableColumn id="4" xr3:uid="{1E16B457-6000-4743-9439-9D6865E34250}" name="ref_comment"/>
@@ -1165,8 +1392,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1A2C81E6-658C-CE40-B517-3E1650CBE932}" name="Table3" displayName="Table3" ref="B2:G35" totalsRowShown="0">
-  <autoFilter ref="B2:G35" xr:uid="{1A2C81E6-658C-CE40-B517-3E1650CBE932}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1A2C81E6-658C-CE40-B517-3E1650CBE932}" name="Table3" displayName="Table3" ref="B2:G54" totalsRowShown="0">
+  <autoFilter ref="B2:G54" xr:uid="{1A2C81E6-658C-CE40-B517-3E1650CBE932}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{397B5144-7BE7-5040-A155-78DE0B051967}" name="pk"/>
     <tableColumn id="2" xr3:uid="{6EC61B08-E983-9A41-8626-3236E69BF335}" name="db_name"/>
@@ -1476,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068F48D0-C0F6-0F48-8756-0A46C8000F25}">
-  <dimension ref="B1:U25"/>
+  <dimension ref="B2:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1493,24 +1720,21 @@
     <col min="7" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.1640625" customWidth="1"/>
-    <col min="11" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.83203125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="29.83203125" customWidth="1"/>
     <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="51.5" customWidth="1"/>
     <col min="17" max="17" width="13.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.83203125" style="16" customWidth="1"/>
-    <col min="21" max="21" width="33.1640625" customWidth="1"/>
+    <col min="20" max="20" width="33.83203125" customWidth="1"/>
+    <col min="21" max="21" width="36.83203125" customWidth="1"/>
     <col min="22" max="22" width="28.5" customWidth="1"/>
     <col min="23" max="23" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M1"/>
-      <c r="T1"/>
-    </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
@@ -1607,16 +1831,18 @@
       <c r="L3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" t="s">
         <v>185</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" s="3"/>
+      <c r="P3" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="Q3" t="s">
         <v>155</v>
       </c>
@@ -1626,7 +1852,7 @@
       <c r="S3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="13" t="s">
         <v>71</v>
       </c>
       <c r="U3" s="4" t="s">
@@ -1667,16 +1893,18 @@
       <c r="L4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" t="s">
         <v>95</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" t="s">
         <v>96</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="3"/>
+      <c r="P4" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="Q4" t="s">
         <v>155</v>
       </c>
@@ -1686,7 +1914,7 @@
       <c r="S4" t="s">
         <v>220</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="13" t="s">
         <v>97</v>
       </c>
       <c r="U4" s="4" t="s">
@@ -1727,16 +1955,16 @@
       <c r="L5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" t="s">
         <v>119</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" t="s">
         <v>177</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="17" t="s">
         <v>120</v>
       </c>
       <c r="Q5" t="s">
@@ -1748,7 +1976,7 @@
       <c r="S5" t="s">
         <v>176</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="13" t="s">
         <v>145</v>
       </c>
       <c r="U5" s="4" t="s">
@@ -1789,16 +2017,18 @@
       <c r="L6" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" t="s">
         <v>146</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" t="s">
         <v>185</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="Q6" t="s">
         <v>155</v>
       </c>
@@ -1808,7 +2038,7 @@
       <c r="S6" t="s">
         <v>144</v>
       </c>
-      <c r="T6" s="14" t="s">
+      <c r="T6" s="13" t="s">
         <v>147</v>
       </c>
       <c r="U6" s="4" t="s">
@@ -1849,16 +2079,16 @@
       <c r="L7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" t="s">
         <v>151</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" t="s">
         <v>185</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="17" t="s">
         <v>149</v>
       </c>
       <c r="Q7" t="s">
@@ -1870,7 +2100,7 @@
       <c r="S7" t="s">
         <v>148</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="T7" s="13" t="s">
         <v>152</v>
       </c>
       <c r="U7" s="4" t="s">
@@ -1911,16 +2141,16 @@
       <c r="L8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" t="s">
         <v>157</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" t="s">
         <v>185</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="17" t="s">
         <v>159</v>
       </c>
       <c r="Q8" t="s">
@@ -1932,7 +2162,7 @@
       <c r="S8" t="s">
         <v>175</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="T8" s="13" t="s">
         <v>174</v>
       </c>
       <c r="U8" s="4" t="s">
@@ -1973,16 +2203,18 @@
       <c r="L9" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" t="s">
         <v>183</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" t="s">
         <v>185</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
-      <c r="P9" s="3"/>
+      <c r="P9" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="Q9" t="s">
         <v>154</v>
       </c>
@@ -1992,7 +2224,7 @@
       <c r="S9" t="s">
         <v>181</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="T9" s="14" t="s">
         <v>182</v>
       </c>
       <c r="U9" s="4" t="s">
@@ -2033,16 +2265,16 @@
       <c r="L10" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" t="s">
         <v>188</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" t="s">
         <v>75</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="17" t="s">
         <v>190</v>
       </c>
       <c r="Q10" t="s">
@@ -2054,7 +2286,7 @@
       <c r="S10" t="s">
         <v>191</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="14" t="s">
         <v>192</v>
       </c>
       <c r="U10" s="4" t="s">
@@ -2095,16 +2327,16 @@
       <c r="L11" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" t="s">
         <v>193</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" t="s">
         <v>197</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="17" t="s">
         <v>196</v>
       </c>
       <c r="Q11" t="s">
@@ -2116,7 +2348,7 @@
       <c r="S11" t="s">
         <v>195</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="T11" s="14" t="s">
         <v>198</v>
       </c>
       <c r="U11" s="4" t="s">
@@ -2157,16 +2389,16 @@
       <c r="L12" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" t="s">
         <v>199</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" t="s">
         <v>201</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="17" t="s">
         <v>202</v>
       </c>
       <c r="Q12" t="s">
@@ -2178,7 +2410,7 @@
       <c r="S12" t="s">
         <v>204</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="14" t="s">
         <v>203</v>
       </c>
       <c r="U12" s="4" t="s">
@@ -2219,16 +2451,18 @@
       <c r="L13" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" t="s">
         <v>214</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" t="s">
         <v>185</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
-      <c r="P13" s="3"/>
+      <c r="P13" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="Q13" t="s">
         <v>154</v>
       </c>
@@ -2238,7 +2472,7 @@
       <c r="S13" t="s">
         <v>215</v>
       </c>
-      <c r="T13" s="15" t="s">
+      <c r="T13" s="14" t="s">
         <v>216</v>
       </c>
       <c r="U13" s="4" t="s">
@@ -2279,16 +2513,18 @@
       <c r="L14" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" t="s">
         <v>218</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="N14" t="s">
         <v>185</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" s="3"/>
+      <c r="P14" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="Q14" t="s">
         <v>154</v>
       </c>
@@ -2298,7 +2534,7 @@
       <c r="S14" t="s">
         <v>219</v>
       </c>
-      <c r="T14" s="15" t="s">
+      <c r="T14" s="14" t="s">
         <v>108</v>
       </c>
       <c r="U14" s="4" t="s">
@@ -2339,16 +2575,18 @@
       <c r="L15" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" t="s">
         <v>223</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="N15" t="s">
         <v>185</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="3"/>
+      <c r="P15" s="17" t="s">
+        <v>185</v>
+      </c>
       <c r="Q15" t="s">
         <v>155</v>
       </c>
@@ -2358,7 +2596,7 @@
       <c r="S15" t="s">
         <v>224</v>
       </c>
-      <c r="T15" s="15" t="s">
+      <c r="T15" s="14" t="s">
         <v>225</v>
       </c>
       <c r="U15" s="4" t="s">
@@ -2399,16 +2637,16 @@
       <c r="L16" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="M16" t="s">
         <v>231</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" t="s">
         <v>185</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="17" t="s">
         <v>233</v>
       </c>
       <c r="Q16" t="s">
@@ -2420,7 +2658,7 @@
       <c r="S16" t="s">
         <v>234</v>
       </c>
-      <c r="T16" s="15" t="s">
+      <c r="T16" s="14" t="s">
         <v>232</v>
       </c>
       <c r="U16" s="4" t="s">
@@ -2461,16 +2699,16 @@
       <c r="L17" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" t="s">
         <v>244</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="N17" t="s">
         <v>185</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="17" t="s">
         <v>247</v>
       </c>
       <c r="Q17" t="s">
@@ -2482,7 +2720,7 @@
       <c r="S17" t="s">
         <v>245</v>
       </c>
-      <c r="T17" s="15" t="s">
+      <c r="T17" s="14" t="s">
         <v>246</v>
       </c>
       <c r="U17" s="4" t="s">
@@ -2496,11 +2734,57 @@
       <c r="C18" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="2"/>
-      <c r="N18" s="17"/>
-      <c r="P18" s="3"/>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18">
+        <v>2023</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="K18" s="5">
+        <v>6</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M18" t="s">
+        <v>254</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>155</v>
+      </c>
+      <c r="R18" t="s">
+        <v>155</v>
+      </c>
+      <c r="S18" t="s">
+        <v>258</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>257</v>
+      </c>
       <c r="U18" s="4" t="s">
         <v>69</v>
       </c>
@@ -2512,11 +2796,57 @@
       <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="2"/>
-      <c r="N19" s="17"/>
-      <c r="P19" s="3"/>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19">
+        <v>2023</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="K19" s="5">
+        <v>6</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="M19" t="s">
+        <v>260</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>155</v>
+      </c>
+      <c r="R19" t="s">
+        <v>187</v>
+      </c>
+      <c r="S19" t="s">
+        <v>262</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>263</v>
+      </c>
       <c r="U19" s="4" t="s">
         <v>69</v>
       </c>
@@ -2528,11 +2858,57 @@
       <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="2"/>
-      <c r="N20" s="17"/>
-      <c r="P20" s="3"/>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>2022</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="K20" s="5">
+        <v>6</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="M20" t="s">
+        <v>265</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>154</v>
+      </c>
+      <c r="R20" t="s">
+        <v>156</v>
+      </c>
+      <c r="S20" t="s">
+        <v>268</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>269</v>
+      </c>
       <c r="U20" s="4" t="s">
         <v>69</v>
       </c>
@@ -2544,11 +2920,57 @@
       <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="2"/>
-      <c r="N21" s="17"/>
-      <c r="P21" s="3"/>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>2010</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="K21" s="5">
+        <v>6</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M21" t="s">
+        <v>271</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>155</v>
+      </c>
+      <c r="R21" t="s">
+        <v>155</v>
+      </c>
+      <c r="S21" t="s">
+        <v>273</v>
+      </c>
+      <c r="T21" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="U21" s="4" t="s">
         <v>69</v>
       </c>
@@ -2560,11 +2982,57 @@
       <c r="C22" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="2"/>
-      <c r="N22" s="17"/>
-      <c r="P22" s="3"/>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22">
+        <v>1978</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K22" s="5">
+        <v>6</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M22" t="s">
+        <v>294</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>155</v>
+      </c>
+      <c r="R22" t="s">
+        <v>155</v>
+      </c>
+      <c r="S22" t="s">
+        <v>295</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>297</v>
+      </c>
       <c r="U22" s="4" t="s">
         <v>69</v>
       </c>
@@ -2576,11 +3044,57 @@
       <c r="C23" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="2"/>
-      <c r="N23" s="17"/>
-      <c r="P23" s="3"/>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23">
+        <v>2023</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K23" s="5">
+        <v>6</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="M23" t="s">
+        <v>300</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>153</v>
+      </c>
+      <c r="R23" t="s">
+        <v>186</v>
+      </c>
+      <c r="S23" t="s">
+        <v>301</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>302</v>
+      </c>
       <c r="U23" s="4" t="s">
         <v>69</v>
       </c>
@@ -2592,26 +3106,450 @@
       <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="2"/>
-      <c r="N24" s="17"/>
-      <c r="P24" s="3"/>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <v>2023</v>
+      </c>
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
+        <v>248</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M24" t="s">
+        <v>307</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>155</v>
+      </c>
+      <c r="R24" t="s">
+        <v>155</v>
+      </c>
+      <c r="S24" t="s">
+        <v>224</v>
+      </c>
+      <c r="T24" s="14" t="s">
+        <v>310</v>
+      </c>
       <c r="U24" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="R25" s="3"/>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25">
+        <v>2020</v>
+      </c>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="K25" s="5">
+        <v>2</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>153</v>
+      </c>
+      <c r="R25" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="S25" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26">
+        <v>2019</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="K26" s="5">
+        <v>2</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>155</v>
+      </c>
+      <c r="R26" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="S26" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="T26" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>2021</v>
+      </c>
+      <c r="H27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="K27" s="5">
+        <v>2</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>155</v>
+      </c>
+      <c r="R27" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="S27" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>332</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>2020</v>
+      </c>
+      <c r="H28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K28" s="5">
+        <v>3</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>155</v>
+      </c>
+      <c r="R28" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="S28" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="T28" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>337</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29">
+        <v>2023</v>
+      </c>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="K29" s="5">
+        <v>4</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>155</v>
+      </c>
+      <c r="R29" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="S29" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="15"/>
+      <c r="P30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="15"/>
+      <c r="P31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="3"/>
+    </row>
+    <row r="33" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J33" s="1"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="15"/>
+      <c r="P33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="10:21" x14ac:dyDescent="0.2">
+      <c r="J34" s="1"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="15"/>
+      <c r="P34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:E24">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="E33:E34 E3:E31">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J24">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="I33:I34 I3:I31">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"None"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:J34 J3:J31">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2624,37 +3562,37 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O24">
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+  <conditionalFormatting sqref="N33:N34 N3:N31">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="notEqual">
+      <formula>"not specified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"not specified"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O33:O34 O3:O31">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:R24">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="notEqual">
+  <conditionalFormatting sqref="Q33:R34 Q3:R31">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
       <formula>"Not mentioned"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"not mentioned"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N24">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
-      <formula>"not specified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+  <conditionalFormatting sqref="P33:P34 P3:P31">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"not specified"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I24">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"None"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B24" xr:uid="{A8AF43FC-C864-0442-BE4D-1BD3B99797F0}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33:B34 B3:B31" xr:uid="{A8AF43FC-C864-0442-BE4D-1BD3B99797F0}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D24" xr:uid="{DE81B6F3-8CEE-BE43-8C07-AF5DC780196D}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33:D34 D3:D31" xr:uid="{DE81B6F3-8CEE-BE43-8C07-AF5DC780196D}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
@@ -2683,10 +3621,26 @@
     <hyperlink ref="T15" r:id="rId21" xr:uid="{CA3CFD41-4343-BF47-BDBD-E6941AB200A3}"/>
     <hyperlink ref="T16" r:id="rId22" xr:uid="{DD2FF52B-8D35-A44E-B0ED-45D5D61D0F07}"/>
     <hyperlink ref="T17" r:id="rId23" xr:uid="{51F7187F-5358-2849-8472-7C3E4E859657}"/>
+    <hyperlink ref="T18" r:id="rId24" xr:uid="{029ED567-C070-B34C-B6D7-D80577E39992}"/>
+    <hyperlink ref="T19" r:id="rId25" xr:uid="{A7329540-65FD-1849-84D2-9244B1BD561A}"/>
+    <hyperlink ref="T20" r:id="rId26" xr:uid="{6A99BFD4-BAB3-7A45-9A88-C5E85FDFF0C8}"/>
+    <hyperlink ref="T21" r:id="rId27" xr:uid="{04A2209A-C01E-4345-AC8F-8B28470D961F}"/>
+    <hyperlink ref="T22" r:id="rId28" xr:uid="{8C5C6103-3A84-CD4B-B0E4-AFB6CBE6268E}"/>
+    <hyperlink ref="T23" r:id="rId29" xr:uid="{4E874567-21A8-234D-ABB7-163AB8D80682}"/>
+    <hyperlink ref="T24" r:id="rId30" xr:uid="{D8F31D70-FEFF-F846-A7B5-58B69D6348ED}"/>
+    <hyperlink ref="U25" r:id="rId31" xr:uid="{2EE5E883-FCE4-8C42-94BC-7A922E62DC65}"/>
+    <hyperlink ref="T25" r:id="rId32" xr:uid="{B475C20A-2E9C-0C4D-B7B7-02C4E5864019}"/>
+    <hyperlink ref="U26" r:id="rId33" xr:uid="{A9EF7319-5B1C-D74E-A561-0DD548530505}"/>
+    <hyperlink ref="T26" r:id="rId34" xr:uid="{CD1BA2B8-9D7A-E549-8FAE-C43DAA1D1D10}"/>
+    <hyperlink ref="U27" r:id="rId35" xr:uid="{51AB83C7-1D02-3D46-8BB5-79D8553CEE32}"/>
+    <hyperlink ref="T27" r:id="rId36" xr:uid="{E9B28FC3-0E80-7645-879C-F52BF29A88F8}"/>
+    <hyperlink ref="T28" r:id="rId37" xr:uid="{A89A9514-5C6D-C64F-8A1B-9355F32E3BF0}"/>
+    <hyperlink ref="U29" r:id="rId38" xr:uid="{4C1F5746-7BAC-484E-A22B-6A77AC8DA912}"/>
+    <hyperlink ref="T29" r:id="rId39" xr:uid="{6E76C6C8-A0B3-A947-8EC9-08753C886A4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId40"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -2704,7 +3658,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J3:J24</xm:sqref>
+          <xm:sqref>J33:J34 J3:J31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2714,43 +3668,43 @@
           <x14:formula1>
             <xm:f>factors!$C$3:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F24</xm:sqref>
+          <xm:sqref>F33:F34 F3:F31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{497BC3DD-CEC8-2747-860E-683E9AB8EA62}">
           <x14:formula1>
             <xm:f>factors!$D$3:$D$11</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E24</xm:sqref>
+          <xm:sqref>E33:E34 E3:E31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F2C01858-56B7-724A-B24C-A857D3030B5A}">
           <x14:formula1>
             <xm:f>factors!$E$3:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H24</xm:sqref>
+          <xm:sqref>H33:H34 H3:H31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{566B1144-F99A-C245-8189-04C656B42A78}">
           <x14:formula1>
             <xm:f>factors!$F$3:$F$6</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I24</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EBAE5E32-2C54-BA45-86E5-09D8CE417A28}">
-          <x14:formula1>
-            <xm:f>factors!$G$3:$G$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>N3:N24</xm:sqref>
+          <xm:sqref>I33:I34 I3:I31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1AA26AE0-EDAD-8C47-ACEB-3F6AE8EEE028}">
           <x14:formula1>
             <xm:f>factors!$K$3:$K$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q3:Q24</xm:sqref>
+          <xm:sqref>Q33:Q34 Q3:Q31</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{23A70AE2-6E88-4942-88A7-3AD2C2C96B60}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EBAE5E32-2C54-BA45-86E5-09D8CE417A28}">
           <x14:formula1>
-            <xm:f>factors!$L$3:$L$11</xm:f>
+            <xm:f>factors!$G$3:$G$21</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R24</xm:sqref>
+          <xm:sqref>N33:N34 N3:N31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{745EE373-4BD2-1042-AADC-7EDFB98FA266}">
+          <x14:formula1>
+            <xm:f>factors!$L$3:$L$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>R33:R34 R3:R31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2760,10 +3714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7254ACE7-56C6-5040-ABFE-788EED7DE7C7}">
-  <dimension ref="B2:I37"/>
+  <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3112,7 +4066,7 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="12" t="s">
+      <c r="B32" t="s">
         <v>51</v>
       </c>
       <c r="C32">
@@ -3127,8 +4081,7 @@
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="12"/>
-      <c r="I33" s="13"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
@@ -3143,7 +4096,7 @@
       <c r="E34" t="s">
         <v>241</v>
       </c>
-      <c r="I34" s="13"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
@@ -3159,11 +4112,123 @@
         <v>242</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="12"/>
-    </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="12"/>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>55</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E39" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E40" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C42">
+        <v>53</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C43">
+        <v>64</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E43" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44">
+        <v>109</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E44" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="16"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3196,10 +4261,18 @@
     <hyperlink ref="D31" r:id="rId26" xr:uid="{D5FD0FEA-0E5D-B74A-9920-3B8F9A04A4BD}"/>
     <hyperlink ref="D34" r:id="rId27" xr:uid="{CB62A20C-2A06-3F49-B0ED-47D641C90CC2}"/>
     <hyperlink ref="D35" r:id="rId28" xr:uid="{55A3C2F6-C9A4-E54D-8B07-E30F20F15CD0}"/>
+    <hyperlink ref="D37" r:id="rId29" xr:uid="{E01B0CF2-6BFE-D345-B7D6-C0B9C0750721}"/>
+    <hyperlink ref="D38" r:id="rId30" xr:uid="{A0EDAFCC-32C8-C54B-B95A-3FCD6EB27A4E}"/>
+    <hyperlink ref="D39" r:id="rId31" xr:uid="{B7A98387-F885-6A4D-8AB6-D1E499508E31}"/>
+    <hyperlink ref="D40" r:id="rId32" xr:uid="{129B8CCF-B618-704C-A4B0-F7AB8A3E1964}"/>
+    <hyperlink ref="D41" r:id="rId33" xr:uid="{54C82C25-7642-0E43-A781-CA0CA8B784A7}"/>
+    <hyperlink ref="D42" r:id="rId34" xr:uid="{B11A1E93-5864-B843-9CB5-557F0F8E5E36}"/>
+    <hyperlink ref="D43" r:id="rId35" xr:uid="{471C162F-9F71-734A-9014-76CD511D05CB}"/>
+    <hyperlink ref="D44" r:id="rId36" xr:uid="{54A17B45-9CAF-704A-92DF-92CF3F3F7D13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId37"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -3218,10 +4291,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCB2E3E-28B4-564E-8BB1-3B4DB94D469B}">
-  <dimension ref="B2:I35"/>
+  <dimension ref="B2:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3436,7 +4509,7 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
+      <c r="B19" t="s">
         <v>51</v>
       </c>
       <c r="C19" t="s">
@@ -3453,7 +4526,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="12" t="s">
+      <c r="B20" t="s">
         <v>51</v>
       </c>
       <c r="C20" t="s">
@@ -3465,7 +4538,7 @@
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="12" t="s">
+      <c r="B21" t="s">
         <v>51</v>
       </c>
       <c r="C21" t="s">
@@ -3477,7 +4550,7 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="12" t="s">
+      <c r="B22" t="s">
         <v>51</v>
       </c>
       <c r="C22" t="s">
@@ -3494,11 +4567,10 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="12" t="s">
+      <c r="B24" t="s">
         <v>53</v>
       </c>
       <c r="C24" t="s">
@@ -3510,7 +4582,7 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="12" t="s">
+      <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="s">
@@ -3522,7 +4594,7 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="12" t="s">
+      <c r="B26" t="s">
         <v>53</v>
       </c>
       <c r="C26" t="s">
@@ -3534,7 +4606,7 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="12" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
       <c r="C27" t="s">
@@ -3626,9 +4698,160 @@
         <v>252</v>
       </c>
     </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" t="s">
+        <v>292</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>303</v>
+      </c>
+      <c r="C43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>304</v>
+      </c>
+      <c r="C44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>305</v>
+      </c>
+      <c r="C45" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>306</v>
+      </c>
+      <c r="C46" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>318</v>
+      </c>
+      <c r="C48" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F54" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C3:C35">
+  <conditionalFormatting sqref="C3:C54">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>COUNTIF($C$3:$C3,$C3)&gt;1</formula>
     </cfRule>
@@ -3651,10 +4874,11 @@
     <hyperlink ref="F31" r:id="rId15" xr:uid="{0CA930B9-8A70-0748-B269-CB8C06557907}"/>
     <hyperlink ref="F34" r:id="rId16" xr:uid="{66A76C66-F913-B340-BEDA-147F8159ABBC}"/>
     <hyperlink ref="F35" r:id="rId17" xr:uid="{4B98ED98-7408-6042-B386-64B2B53F986D}"/>
+    <hyperlink ref="F39" r:id="rId18" xr:uid="{47324C33-A3FB-8A49-B2B2-4760A3B99BAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -3663,7 +4887,7 @@
           <x14:formula1>
             <xm:f>factors!$I$3:$I$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D35</xm:sqref>
+          <xm:sqref>D3:D54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A4B89F4-DB21-124C-8D10-52A35A151DF7}">
           <x14:formula1>
@@ -3789,10 +5013,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8227E6-DB79-7241-B7AF-4C424F805AD9}">
-  <dimension ref="B2:L11"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3991,12 +5215,40 @@
         <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>185</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/raw/2024-01-03_review_papers.xlsx
+++ b/src/data/raw/2024-01-03_review_papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lex/Workspace/phd-research-ucc/repositories/mrs-systematic-analysis/src/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A9534F-F02C-614A-A20D-CF8FF8C72FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F35F60E-01B3-8D40-AADA-8C81A96BAF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{42FB9FC8-AC2E-C945-8759-9355EAD5812E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="345">
   <si>
     <t>count</t>
   </si>
@@ -1705,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068F48D0-C0F6-0F48-8756-0A46C8000F25}">
   <dimension ref="B2:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3467,18 +3467,7 @@
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="J30" s="1"/>
       <c r="K30" s="5"/>
       <c r="L30" s="2"/>
       <c r="M30" s="17"/>
@@ -3490,18 +3479,7 @@
       <c r="U30" s="3"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="E31" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="J31" s="1"/>
       <c r="K31" s="5"/>
       <c r="L31" s="2"/>
       <c r="M31" s="17"/>

--- a/src/data/raw/2024-01-03_review_papers.xlsx
+++ b/src/data/raw/2024-01-03_review_papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lex/Workspace/phd-research-ucc/repositories/mrs-systematic-analysis/src/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F35F60E-01B3-8D40-AADA-8C81A96BAF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A9B8D2-E3BA-1347-A137-1B7A2BF620B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{42FB9FC8-AC2E-C945-8759-9355EAD5812E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20380" xr2:uid="{42FB9FC8-AC2E-C945-8759-9355EAD5812E}"/>
   </bookViews>
   <sheets>
     <sheet name="papers" sheetId="1" r:id="rId1"/>
@@ -1159,7 +1159,7 @@
       <alignment horizontal="fill" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1184,9 +1184,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1207,13 +1204,9 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1227,9 +1220,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1278,19 +1275,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1307,6 +1291,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1351,6 +1348,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02E67EF5-CF56-8A46-AAD1-7367959AC624}" name="Table1" displayName="Table1" ref="B2:U34" totalsRowShown="0">
   <autoFilter ref="B2:U34" xr:uid="{02E67EF5-CF56-8A46-AAD1-7367959AC624}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:U34">
+    <sortCondition ref="B2:B34"/>
+  </sortState>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{ED677BE4-361B-8D44-8CD6-F0AEEA011920}" name="count"/>
     <tableColumn id="2" xr3:uid="{FFD7AE9A-C033-3147-9E29-70AB2E220DDA}" name="pk"/>
@@ -1366,12 +1366,12 @@
     <tableColumn id="13" xr3:uid="{E3DF3DD3-8A11-6E41-B2D8-7D4D4CC58F2B}" name="title" dataDxfId="16"/>
     <tableColumn id="14" xr3:uid="{DBF169C0-2F63-7146-A2D1-70994280E63D}" name="method" dataDxfId="15"/>
     <tableColumn id="17" xr3:uid="{5A2B4EE5-BF86-7042-97F7-E54C28D22FA9}" name="covid19"/>
-    <tableColumn id="18" xr3:uid="{50337C7A-AEB8-6A41-9E80-81EE1EE770BC}" name="objectives" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{50337C7A-AEB8-6A41-9E80-81EE1EE770BC}" name="objectives" dataDxfId="14"/>
     <tableColumn id="19" xr3:uid="{E63FEC1A-8B57-1B47-AAEC-C5489A7E23BF}" name="coi"/>
-    <tableColumn id="20" xr3:uid="{FAB4274B-32D5-714B-AEC0-065807D96185}" name="funding" dataDxfId="14"/>
-    <tableColumn id="21" xr3:uid="{329430AD-233F-7844-8FD3-986B1229B338}" name="comment" dataDxfId="11"/>
-    <tableColumn id="22" xr3:uid="{7F68878B-5789-5D4B-88C5-2071869281AC}" name="url" dataDxfId="10"/>
-    <tableColumn id="23" xr3:uid="{46B5E7B4-3D1C-CD4B-8B57-EAB7415DFC0D}" name="review_url" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{FAB4274B-32D5-714B-AEC0-065807D96185}" name="funding" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{329430AD-233F-7844-8FD3-986B1229B338}" name="comment" dataDxfId="12"/>
+    <tableColumn id="22" xr3:uid="{7F68878B-5789-5D4B-88C5-2071869281AC}" name="url" dataDxfId="11"/>
+    <tableColumn id="23" xr3:uid="{46B5E7B4-3D1C-CD4B-8B57-EAB7415DFC0D}" name="review_url" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1381,7 +1381,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07674F2D-48E4-6445-B114-EAC6E0A8140D}" name="Table2" displayName="Table2" ref="B2:F46" totalsRowShown="0">
   <autoFilter ref="B2:F46" xr:uid="{07674F2D-48E4-6445-B114-EAC6E0A8140D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F57613C8-BD69-D744-AEED-50188C65CB98}" name="pk" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{F57613C8-BD69-D744-AEED-50188C65CB98}" name="pk" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{E697A4C6-CB50-0449-AD63-6ACBEE53E663}" name="local_ref"/>
     <tableColumn id="3" xr3:uid="{53E59951-C7CE-0740-917C-0D957BB1897C}" name="ref_url"/>
     <tableColumn id="4" xr3:uid="{1E16B457-6000-4743-9439-9D6865E34250}" name="ref_comment"/>
@@ -1706,7 +1706,7 @@
   <dimension ref="B2:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1722,7 +1722,7 @@
     <col min="10" max="10" width="13.1640625" customWidth="1"/>
     <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.1640625" customWidth="1"/>
-    <col min="13" max="13" width="29.83203125" customWidth="1"/>
+    <col min="13" max="13" width="39" customWidth="1"/>
     <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="51.5" customWidth="1"/>
@@ -1840,7 +1840,7 @@
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" t="s">
         <v>185</v>
       </c>
       <c r="Q3" t="s">
@@ -1902,7 +1902,7 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" t="s">
         <v>185</v>
       </c>
       <c r="Q4" t="s">
@@ -1964,7 +1964,7 @@
       <c r="O5">
         <v>1</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" t="s">
         <v>120</v>
       </c>
       <c r="Q5" t="s">
@@ -2026,7 +2026,7 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" t="s">
         <v>185</v>
       </c>
       <c r="Q6" t="s">
@@ -2088,7 +2088,7 @@
       <c r="O7">
         <v>1</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" t="s">
         <v>149</v>
       </c>
       <c r="Q7" t="s">
@@ -2150,7 +2150,7 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="P8" t="s">
         <v>159</v>
       </c>
       <c r="Q8" t="s">
@@ -2212,7 +2212,7 @@
       <c r="O9">
         <v>1</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" t="s">
         <v>185</v>
       </c>
       <c r="Q9" t="s">
@@ -2274,7 +2274,7 @@
       <c r="O10">
         <v>1</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" t="s">
         <v>190</v>
       </c>
       <c r="Q10" t="s">
@@ -2336,7 +2336,7 @@
       <c r="O11">
         <v>1</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P11" t="s">
         <v>196</v>
       </c>
       <c r="Q11" t="s">
@@ -2398,7 +2398,7 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="P12" t="s">
         <v>202</v>
       </c>
       <c r="Q12" t="s">
@@ -2460,7 +2460,7 @@
       <c r="O13">
         <v>1</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P13" t="s">
         <v>185</v>
       </c>
       <c r="Q13" t="s">
@@ -2522,7 +2522,7 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" t="s">
         <v>185</v>
       </c>
       <c r="Q14" t="s">
@@ -2584,7 +2584,7 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="P15" t="s">
         <v>185</v>
       </c>
       <c r="Q15" t="s">
@@ -2646,7 +2646,7 @@
       <c r="O16">
         <v>1</v>
       </c>
-      <c r="P16" s="17" t="s">
+      <c r="P16" t="s">
         <v>233</v>
       </c>
       <c r="Q16" t="s">
@@ -2708,7 +2708,7 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" s="17" t="s">
+      <c r="P17" t="s">
         <v>247</v>
       </c>
       <c r="Q17" t="s">
@@ -2770,7 +2770,7 @@
       <c r="O18">
         <v>1</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P18" t="s">
         <v>256</v>
       </c>
       <c r="Q18" t="s">
@@ -2826,13 +2826,13 @@
       <c r="M19" t="s">
         <v>260</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="N19" t="s">
         <v>185</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
-      <c r="P19" s="17" t="s">
+      <c r="P19" t="s">
         <v>261</v>
       </c>
       <c r="Q19" t="s">
@@ -2894,7 +2894,7 @@
       <c r="O20">
         <v>1</v>
       </c>
-      <c r="P20" s="17" t="s">
+      <c r="P20" t="s">
         <v>267</v>
       </c>
       <c r="Q20" t="s">
@@ -2950,13 +2950,13 @@
       <c r="M21" t="s">
         <v>271</v>
       </c>
-      <c r="N21" s="16" t="s">
+      <c r="N21" t="s">
         <v>185</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="P21" s="17" t="s">
+      <c r="P21" t="s">
         <v>272</v>
       </c>
       <c r="Q21" t="s">
@@ -3012,13 +3012,13 @@
       <c r="M22" t="s">
         <v>294</v>
       </c>
-      <c r="N22" s="16" t="s">
+      <c r="N22" t="s">
         <v>185</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22" s="17" t="s">
+      <c r="P22" t="s">
         <v>296</v>
       </c>
       <c r="Q22" t="s">
@@ -3080,7 +3080,7 @@
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23" s="17" t="s">
+      <c r="P23" t="s">
         <v>299</v>
       </c>
       <c r="Q23" t="s">
@@ -3136,13 +3136,13 @@
       <c r="M24" t="s">
         <v>307</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="N24" t="s">
         <v>185</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
-      <c r="P24" s="17" t="s">
+      <c r="P24" t="s">
         <v>309</v>
       </c>
       <c r="Q24" t="s">
@@ -3195,7 +3195,7 @@
       <c r="L25" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="M25" s="17" t="s">
+      <c r="M25" t="s">
         <v>314</v>
       </c>
       <c r="N25" s="15" t="s">
@@ -3204,16 +3204,16 @@
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="P25" s="17" t="s">
+      <c r="P25" t="s">
         <v>185</v>
       </c>
       <c r="Q25" t="s">
         <v>153</v>
       </c>
-      <c r="R25" s="17" t="s">
+      <c r="R25" t="s">
         <v>156</v>
       </c>
-      <c r="S25" s="18" t="s">
+      <c r="S25" t="s">
         <v>317</v>
       </c>
       <c r="T25" s="13" t="s">
@@ -3257,7 +3257,7 @@
       <c r="L26" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="M26" t="s">
         <v>319</v>
       </c>
       <c r="N26" s="15" t="s">
@@ -3266,16 +3266,16 @@
       <c r="O26">
         <v>0</v>
       </c>
-      <c r="P26" s="17" t="s">
+      <c r="P26" t="s">
         <v>185</v>
       </c>
       <c r="Q26" t="s">
         <v>155</v>
       </c>
-      <c r="R26" s="17" t="s">
+      <c r="R26" t="s">
         <v>155</v>
       </c>
-      <c r="S26" s="18" t="s">
+      <c r="S26" t="s">
         <v>321</v>
       </c>
       <c r="T26" s="13" t="s">
@@ -3322,22 +3322,22 @@
       <c r="M27" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="N27" s="16" t="s">
+      <c r="N27" t="s">
         <v>185</v>
       </c>
       <c r="O27">
         <v>1</v>
       </c>
-      <c r="P27" s="17" t="s">
+      <c r="P27" t="s">
         <v>185</v>
       </c>
       <c r="Q27" t="s">
         <v>155</v>
       </c>
-      <c r="R27" s="17" t="s">
+      <c r="R27" t="s">
         <v>155</v>
       </c>
-      <c r="S27" s="18" t="s">
+      <c r="S27" t="s">
         <v>330</v>
       </c>
       <c r="T27" s="13" t="s">
@@ -3378,7 +3378,7 @@
       <c r="L28" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="M28" s="17" t="s">
+      <c r="M28" t="s">
         <v>333</v>
       </c>
       <c r="N28" s="15" t="s">
@@ -3387,16 +3387,16 @@
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="P28" s="17" t="s">
+      <c r="P28" t="s">
         <v>343</v>
       </c>
       <c r="Q28" t="s">
         <v>155</v>
       </c>
-      <c r="R28" s="17" t="s">
+      <c r="R28" t="s">
         <v>155</v>
       </c>
-      <c r="S28" s="18" t="s">
+      <c r="S28" t="s">
         <v>342</v>
       </c>
       <c r="T28" s="13" t="s">
@@ -3438,7 +3438,7 @@
       <c r="L29" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="M29" s="17" t="s">
+      <c r="M29" t="s">
         <v>336</v>
       </c>
       <c r="N29" s="15" t="s">
@@ -3447,16 +3447,16 @@
       <c r="O29">
         <v>0</v>
       </c>
-      <c r="P29" s="17" t="s">
+      <c r="P29" t="s">
         <v>341</v>
       </c>
       <c r="Q29" t="s">
         <v>155</v>
       </c>
-      <c r="R29" s="17" t="s">
+      <c r="R29" t="s">
         <v>155</v>
       </c>
-      <c r="S29" s="18" t="s">
+      <c r="S29" t="s">
         <v>340</v>
       </c>
       <c r="T29" s="13" t="s">
@@ -3470,58 +3470,38 @@
       <c r="J30" s="1"/>
       <c r="K30" s="5"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="17"/>
       <c r="N30" s="15"/>
-      <c r="P30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
       <c r="U30" s="3"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="J31" s="1"/>
       <c r="K31" s="5"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="17"/>
       <c r="N31" s="15"/>
-      <c r="P31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
       <c r="U31" s="3"/>
     </row>
     <row r="33" spans="10:21" x14ac:dyDescent="0.2">
       <c r="J33" s="1"/>
       <c r="K33" s="5"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="17"/>
       <c r="N33" s="15"/>
-      <c r="P33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
       <c r="U33" s="3"/>
     </row>
     <row r="34" spans="10:21" x14ac:dyDescent="0.2">
       <c r="J34" s="1"/>
       <c r="K34" s="5"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="17"/>
       <c r="N34" s="15"/>
-      <c r="P34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
       <c r="U34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E33:E34 E3:E31">
+  <conditionalFormatting sqref="E3:E31 E33:E34">
     <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:I34 I3:I31">
+  <conditionalFormatting sqref="I3:I31 I33:I34">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"None"</formula>
     </cfRule>
@@ -3540,7 +3520,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N33:N34 N3:N31">
+  <conditionalFormatting sqref="N3:N31 N33:N34">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="notEqual">
       <formula>"not specified"</formula>
     </cfRule>
@@ -3548,22 +3528,22 @@
       <formula>"not specified"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O33:O34 O3:O31">
+  <conditionalFormatting sqref="O3:O31 O33:O34">
     <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q33:R34 Q3:R31">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
-      <formula>"Not mentioned"</formula>
+  <conditionalFormatting sqref="P3:P31 P33:P34">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"not specified"</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:R31 Q33:R34">
     <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"not mentioned"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P33:P34 P3:P31">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"not specified"</formula>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="notEqual">
+      <formula>"Not mentioned"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -3692,7 +3672,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7254ACE7-56C6-5040-ABFE-788EED7DE7C7}">
-  <dimension ref="B2:I46"/>
+  <dimension ref="B2:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="D60" sqref="D60"/>
@@ -4105,7 +4085,7 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="16" t="s">
+      <c r="B38" t="s">
         <v>60</v>
       </c>
       <c r="C38">
@@ -4119,7 +4099,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="16" t="s">
+      <c r="B39" t="s">
         <v>60</v>
       </c>
       <c r="C39">
@@ -4133,7 +4113,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="16" t="s">
+      <c r="B40" t="s">
         <v>278</v>
       </c>
       <c r="C40">
@@ -4147,7 +4127,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="16" t="s">
+      <c r="B41" t="s">
         <v>279</v>
       </c>
       <c r="C41">
@@ -4161,7 +4141,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="16" t="s">
+      <c r="B42" t="s">
         <v>280</v>
       </c>
       <c r="C42">
@@ -4175,7 +4155,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="16" t="s">
+      <c r="B43" t="s">
         <v>281</v>
       </c>
       <c r="C43">
@@ -4189,7 +4169,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="16" t="s">
+      <c r="B44" t="s">
         <v>282</v>
       </c>
       <c r="C44">
@@ -4201,12 +4181,6 @@
       <c r="E44" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="16"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4680,7 +4654,7 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="16" t="s">
+      <c r="B37" t="s">
         <v>282</v>
       </c>
       <c r="C37" t="s">
@@ -4693,7 +4667,7 @@
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="16" t="s">
+      <c r="B38" t="s">
         <v>289</v>
       </c>
       <c r="C38" t="s">
@@ -4705,7 +4679,7 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="16" t="s">
+      <c r="B39" t="s">
         <v>290</v>
       </c>
       <c r="C39" t="s">
@@ -4719,7 +4693,7 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="16" t="s">
+      <c r="B40" t="s">
         <v>291</v>
       </c>
       <c r="C40" t="s">
